--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{27B2DA35-FF40-904F-BB25-A12F3A6BFF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6719D5BA-510A-2A45-8DD3-3017A8337E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
@@ -4495,8 +4495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
+      <selection activeCell="C557" sqref="C557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17317,25 +17317,25 @@
       </c>
     </row>
     <row r="558" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
-        <v>7</v>
-      </c>
-      <c r="B558">
+      <c r="A558" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B558" s="1">
         <v>684</v>
       </c>
-      <c r="C558" s="2" t="s">
+      <c r="C558" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D558" t="s">
-        <v>565</v>
-      </c>
-      <c r="E558">
+      <c r="D558" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E558" s="1">
         <v>21</v>
       </c>
-      <c r="F558">
+      <c r="F558" s="1">
         <v>6</v>
       </c>
-      <c r="G558" t="s">
+      <c r="G558" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6719D5BA-510A-2A45-8DD3-3017A8337E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3B099A-7CCC-7C4F-ADEA-3BACEDB8A88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SecondSampleRanks" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SecondSampleRanks!$A$1:$G$1185</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3625,7 +3638,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3762,7 +3775,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3960,6 +3973,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4121,7 +4140,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4136,6 +4155,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4197,9 +4220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4237,7 +4260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4343,7 +4366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4485,18 +4508,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="C557" sqref="C557"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="D575" sqref="D575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5196,117 +5219,117 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4">
         <v>1437</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4">
         <v>1431</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4">
         <v>1356</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>14</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="4">
         <v>3</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4">
         <v>1291</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>22</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>4</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4">
         <v>1342</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>27</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>5</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5541,899 +5564,899 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4">
         <v>1363</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <v>105</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>16</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6">
         <v>1394</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="6">
         <v>109</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>17</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4">
         <v>1443</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>110</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>18</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49">
+      <c r="A49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4">
         <v>1285</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>111</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="4">
         <v>19</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4">
         <v>1388</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <v>115</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="4">
         <v>20</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4">
         <v>1325</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <v>126</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4">
         <v>1319</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="4">
         <v>131</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="4">
         <v>22</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4">
         <v>1334</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>139</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>23</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54">
+      <c r="A54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="4">
         <v>1383</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="4">
         <v>150</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="4">
         <v>24</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="4">
         <v>1323</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>152</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>25</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4">
         <v>1340</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>154</v>
       </c>
-      <c r="F56">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" s="4">
+        <v>26</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57">
+      <c r="A57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="4">
         <v>1324</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="4">
         <v>172</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="4">
         <v>27</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58">
+      <c r="A58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="4">
         <v>1368</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="4">
         <v>173</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="4">
         <v>28</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="4">
         <v>1428</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <v>175</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <v>29</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60">
+      <c r="A60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4">
         <v>1378</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <v>176</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="4">
         <v>30</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61">
+      <c r="A61" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="4">
         <v>1331</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <v>183</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>31</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62">
+      <c r="A62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="4">
         <v>1389</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <v>186</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="4">
         <v>32</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63">
+      <c r="A63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="6">
         <v>1318</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="6">
         <v>187</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="6">
         <v>33</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64">
+      <c r="A64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="4">
         <v>1439</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <v>199</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="4">
         <v>34</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65">
+      <c r="A65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="4">
         <v>1330</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <v>200</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="4">
         <v>35</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66">
+      <c r="A66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="4">
         <v>1297</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <v>207</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>36</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67">
+      <c r="A67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="4">
         <v>1345</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>215</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="4">
         <v>37</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68">
+      <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="4">
         <v>1438</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <v>223</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>38</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69">
+      <c r="A69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4">
         <v>1306</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>225</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="4">
         <v>39</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70">
+      <c r="A70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4">
         <v>1432</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <v>228</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="4">
         <v>40</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71">
+      <c r="A71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="4">
         <v>1380</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <v>229</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="4">
         <v>41</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72">
+      <c r="A72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="4">
         <v>1300</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <v>236</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="4">
         <v>42</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73">
+      <c r="A73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="8">
         <v>1379</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="8">
         <v>248</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="8">
         <v>43</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74">
+      <c r="A74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="4">
         <v>1384</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="4">
         <v>269</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="4">
         <v>44</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75">
+      <c r="A75" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="4">
         <v>1309</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <v>291</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="4">
         <v>45</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76">
+      <c r="A76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="4">
         <v>1360</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <v>300</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="4">
         <v>46</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77">
+      <c r="A77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="4">
         <v>1341</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <v>313</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="4">
         <v>47</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78">
+      <c r="A78" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="8">
         <v>1336</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="8">
         <v>316</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="8">
         <v>48</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79">
+      <c r="A79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="4">
         <v>1329</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <v>334</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="4">
         <v>49</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80">
+      <c r="A80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4">
         <v>1446</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <v>360</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="4">
         <v>50</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81">
+      <c r="A81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="4">
         <v>1440</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <v>368</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="4">
         <v>51</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82">
+      <c r="A82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="8">
         <v>1347</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="8">
         <v>369</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="8">
         <v>52</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83">
+      <c r="A83" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="4">
         <v>1296</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <v>371</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="4">
         <v>53</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84">
+      <c r="A84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="6">
         <v>1408</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="6">
         <v>375</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="6">
         <v>54</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9267,186 +9290,186 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208">
+      <c r="A208" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="4">
         <v>1243</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D208" t="s">
-        <v>219</v>
-      </c>
-      <c r="E208">
+      <c r="D208" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E208" s="4">
         <v>3</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="4">
         <v>1</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209">
+      <c r="A209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="1">
         <v>1058</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D209" t="s">
-        <v>219</v>
-      </c>
-      <c r="E209">
+      <c r="D209" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E209" s="1">
         <v>4</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="1">
         <v>2</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210">
+      <c r="A210" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="4">
         <v>1067</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D210" t="s">
-        <v>219</v>
-      </c>
-      <c r="E210">
+      <c r="D210" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E210" s="4">
         <v>6</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="4">
         <v>3</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211">
+      <c r="A211" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="4">
         <v>973</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D211" t="s">
-        <v>219</v>
-      </c>
-      <c r="E211">
+      <c r="D211" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E211" s="4">
         <v>9</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="4">
         <v>4</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212">
+      <c r="A212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="1">
         <v>1093</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D212" t="s">
-        <v>219</v>
-      </c>
-      <c r="E212">
+      <c r="D212" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E212" s="1">
         <v>10</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="1">
         <v>5</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>7</v>
-      </c>
-      <c r="B213">
+      <c r="A213" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="4">
         <v>1137</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D213" t="s">
-        <v>219</v>
-      </c>
-      <c r="E213">
+      <c r="D213" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E213" s="4">
         <v>11</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="4">
         <v>6</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>7</v>
-      </c>
-      <c r="B214">
+      <c r="A214" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="4">
         <v>1236</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D214" t="s">
-        <v>219</v>
-      </c>
-      <c r="E214">
+      <c r="D214" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E214" s="4">
         <v>13</v>
       </c>
-      <c r="F214">
-        <v>7</v>
-      </c>
-      <c r="G214" t="s">
+      <c r="F214" s="4">
+        <v>7</v>
+      </c>
+      <c r="G214" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>7</v>
-      </c>
-      <c r="B215">
+      <c r="A215" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="4">
         <v>986</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D215" t="s">
-        <v>219</v>
-      </c>
-      <c r="E215">
+      <c r="D215" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E215" s="4">
         <v>17</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="4">
         <v>8</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9474,25 +9497,25 @@
       </c>
     </row>
     <row r="217" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>7</v>
-      </c>
-      <c r="B217">
+      <c r="A217" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="4">
         <v>1032</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D217" t="s">
-        <v>219</v>
-      </c>
-      <c r="E217">
+      <c r="D217" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E217" s="4">
         <v>23</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="4">
         <v>10</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9612,209 +9635,209 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>7</v>
-      </c>
-      <c r="B223">
+      <c r="A223" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="8">
         <v>1127</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D223" t="s">
-        <v>219</v>
-      </c>
-      <c r="E223">
+      <c r="D223" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E223" s="8">
         <v>45</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="8">
         <v>16</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>7</v>
-      </c>
-      <c r="B224">
+      <c r="A224" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="4">
         <v>989</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D224" t="s">
-        <v>219</v>
-      </c>
-      <c r="E224">
+      <c r="D224" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E224" s="4">
         <v>48</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="4">
         <v>17</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>7</v>
-      </c>
-      <c r="B225">
+      <c r="A225" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" s="4">
         <v>1104</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D225" t="s">
-        <v>219</v>
-      </c>
-      <c r="E225">
+      <c r="D225" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E225" s="4">
         <v>53</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="4">
         <v>18</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>7</v>
-      </c>
-      <c r="B226">
+      <c r="A226" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B226" s="4">
         <v>1244</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D226" t="s">
-        <v>219</v>
-      </c>
-      <c r="E226">
+      <c r="D226" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E226" s="4">
         <v>56</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="4">
         <v>19</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227">
+      <c r="A227" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="4">
         <v>933</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D227" t="s">
-        <v>219</v>
-      </c>
-      <c r="E227">
+      <c r="D227" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E227" s="4">
         <v>58</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="4">
         <v>20</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>7</v>
-      </c>
-      <c r="B228">
+      <c r="A228" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="8">
         <v>1110</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D228" t="s">
-        <v>219</v>
-      </c>
-      <c r="E228">
+      <c r="D228" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E228" s="8">
         <v>59</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="8">
         <v>21</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229">
+      <c r="A229" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="8">
         <v>990</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D229" t="s">
-        <v>219</v>
-      </c>
-      <c r="E229">
+      <c r="D229" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E229" s="8">
         <v>62</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="8">
         <v>22</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230">
+      <c r="A230" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B230" s="8">
         <v>1151</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D230" t="s">
-        <v>219</v>
-      </c>
-      <c r="E230">
+      <c r="D230" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E230" s="8">
         <v>63</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="8">
         <v>23</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231">
+      <c r="A231" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="8">
         <v>1152</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D231" t="s">
-        <v>219</v>
-      </c>
-      <c r="E231">
+      <c r="D231" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E231" s="8">
         <v>64</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="8">
         <v>24</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -17202,117 +17225,117 @@
       </c>
     </row>
     <row r="553" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
-        <v>7</v>
-      </c>
-      <c r="B553">
+      <c r="A553" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B553" s="1">
         <v>478</v>
       </c>
-      <c r="C553" s="2" t="s">
+      <c r="C553" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D553" t="s">
-        <v>565</v>
-      </c>
-      <c r="E553">
+      <c r="D553" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E553" s="1">
         <v>2</v>
       </c>
-      <c r="F553">
+      <c r="F553" s="1">
         <v>1</v>
       </c>
-      <c r="G553" t="s">
+      <c r="G553" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
-        <v>7</v>
-      </c>
-      <c r="B554">
+      <c r="A554" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B554" s="4">
         <v>854</v>
       </c>
-      <c r="C554" s="2" t="s">
+      <c r="C554" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D554" t="s">
-        <v>565</v>
-      </c>
-      <c r="E554">
-        <v>7</v>
-      </c>
-      <c r="F554">
+      <c r="D554" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E554" s="4">
+        <v>7</v>
+      </c>
+      <c r="F554" s="4">
         <v>2</v>
       </c>
-      <c r="G554" t="s">
+      <c r="G554" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="555" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
-        <v>7</v>
-      </c>
-      <c r="B555">
+      <c r="A555" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B555" s="4">
         <v>513</v>
       </c>
-      <c r="C555" s="2" t="s">
+      <c r="C555" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="D555" t="s">
-        <v>565</v>
-      </c>
-      <c r="E555">
+      <c r="D555" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E555" s="4">
         <v>8</v>
       </c>
-      <c r="F555">
+      <c r="F555" s="4">
         <v>3</v>
       </c>
-      <c r="G555" t="s">
+      <c r="G555" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A556" t="s">
-        <v>7</v>
-      </c>
-      <c r="B556">
+      <c r="A556" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B556" s="1">
         <v>734</v>
       </c>
-      <c r="C556" s="2" t="s">
+      <c r="C556" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D556" t="s">
-        <v>565</v>
-      </c>
-      <c r="E556">
+      <c r="D556" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E556" s="1">
         <v>12</v>
       </c>
-      <c r="F556">
+      <c r="F556" s="1">
         <v>4</v>
       </c>
-      <c r="G556" t="s">
+      <c r="G556" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="557" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A557" t="s">
-        <v>7</v>
-      </c>
-      <c r="B557">
+      <c r="A557" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B557" s="1">
         <v>652</v>
       </c>
-      <c r="C557" s="2" t="s">
+      <c r="C557" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D557" t="s">
-        <v>565</v>
-      </c>
-      <c r="E557">
+      <c r="D557" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E557" s="1">
         <v>15</v>
       </c>
-      <c r="F557">
+      <c r="F557" s="1">
         <v>5</v>
       </c>
-      <c r="G557" t="s">
+      <c r="G557" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -17340,71 +17363,71 @@
       </c>
     </row>
     <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A559" t="s">
-        <v>7</v>
-      </c>
-      <c r="B559">
+      <c r="A559" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B559" s="1">
         <v>671</v>
       </c>
-      <c r="C559" s="2" t="s">
+      <c r="C559" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D559" t="s">
-        <v>565</v>
-      </c>
-      <c r="E559">
+      <c r="D559" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E559" s="1">
         <v>25</v>
       </c>
-      <c r="F559">
-        <v>7</v>
-      </c>
-      <c r="G559" t="s">
+      <c r="F559" s="1">
+        <v>7</v>
+      </c>
+      <c r="G559" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="560" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
-        <v>7</v>
-      </c>
-      <c r="B560">
+      <c r="A560" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B560" s="4">
         <v>554</v>
       </c>
-      <c r="C560" s="2" t="s">
+      <c r="C560" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D560" t="s">
-        <v>565</v>
-      </c>
-      <c r="E560">
-        <v>26</v>
-      </c>
-      <c r="F560">
+      <c r="D560" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E560" s="4">
+        <v>26</v>
+      </c>
+      <c r="F560" s="4">
         <v>8</v>
       </c>
-      <c r="G560" t="s">
+      <c r="G560" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="561" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A561" t="s">
-        <v>7</v>
-      </c>
-      <c r="B561">
+      <c r="A561" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B561" s="4">
         <v>582</v>
       </c>
-      <c r="C561" s="2" t="s">
+      <c r="C561" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D561" t="s">
-        <v>565</v>
-      </c>
-      <c r="E561">
+      <c r="D561" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E561" s="4">
         <v>28</v>
       </c>
-      <c r="F561">
+      <c r="F561" s="4">
         <v>9</v>
       </c>
-      <c r="G561" t="s">
+      <c r="G561" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -17547,186 +17570,186 @@
       </c>
     </row>
     <row r="568" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A568" t="s">
-        <v>7</v>
-      </c>
-      <c r="B568">
+      <c r="A568" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B568" s="4">
         <v>922</v>
       </c>
-      <c r="C568" s="2" t="s">
+      <c r="C568" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="D568" t="s">
-        <v>565</v>
-      </c>
-      <c r="E568">
+      <c r="D568" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E568" s="4">
         <v>42</v>
       </c>
-      <c r="F568">
+      <c r="F568" s="4">
         <v>16</v>
       </c>
-      <c r="G568" t="s">
+      <c r="G568" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="569" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A569" t="s">
-        <v>7</v>
-      </c>
-      <c r="B569">
+      <c r="A569" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B569" s="4">
         <v>659</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="C569" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D569" t="s">
-        <v>565</v>
-      </c>
-      <c r="E569">
+      <c r="D569" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E569" s="4">
         <v>43</v>
       </c>
-      <c r="F569">
+      <c r="F569" s="4">
         <v>17</v>
       </c>
-      <c r="G569" t="s">
+      <c r="G569" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="570" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A570" t="s">
-        <v>7</v>
-      </c>
-      <c r="B570">
+      <c r="A570" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B570" s="4">
         <v>618</v>
       </c>
-      <c r="C570" s="2" t="s">
+      <c r="C570" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D570" t="s">
-        <v>565</v>
-      </c>
-      <c r="E570">
+      <c r="D570" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E570" s="4">
         <v>46</v>
       </c>
-      <c r="F570">
+      <c r="F570" s="4">
         <v>18</v>
       </c>
-      <c r="G570" t="s">
+      <c r="G570" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="571" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A571" t="s">
-        <v>7</v>
-      </c>
-      <c r="B571">
+      <c r="A571" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B571" s="6">
         <v>703</v>
       </c>
-      <c r="C571" s="2" t="s">
+      <c r="C571" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="D571" t="s">
-        <v>565</v>
-      </c>
-      <c r="E571">
+      <c r="D571" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E571" s="6">
         <v>49</v>
       </c>
-      <c r="F571">
+      <c r="F571" s="6">
         <v>19</v>
       </c>
-      <c r="G571" t="s">
+      <c r="G571" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="572" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A572" t="s">
-        <v>7</v>
-      </c>
-      <c r="B572">
+      <c r="A572" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B572" s="6">
         <v>804</v>
       </c>
-      <c r="C572" s="2" t="s">
+      <c r="C572" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="D572" t="s">
-        <v>565</v>
-      </c>
-      <c r="E572">
+      <c r="D572" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E572" s="6">
         <v>51</v>
       </c>
-      <c r="F572">
+      <c r="F572" s="6">
         <v>20</v>
       </c>
-      <c r="G572" t="s">
+      <c r="G572" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="573" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A573" t="s">
-        <v>7</v>
-      </c>
-      <c r="B573">
+      <c r="A573" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B573" s="4">
         <v>899</v>
       </c>
-      <c r="C573" s="2" t="s">
+      <c r="C573" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D573" t="s">
-        <v>565</v>
-      </c>
-      <c r="E573">
+      <c r="D573" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E573" s="4">
         <v>55</v>
       </c>
-      <c r="F573">
+      <c r="F573" s="4">
         <v>21</v>
       </c>
-      <c r="G573" t="s">
+      <c r="G573" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A574" t="s">
-        <v>7</v>
-      </c>
-      <c r="B574">
+      <c r="A574" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B574" s="6">
         <v>606</v>
       </c>
-      <c r="C574" s="2" t="s">
+      <c r="C574" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="D574" t="s">
-        <v>565</v>
-      </c>
-      <c r="E574">
+      <c r="D574" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E574" s="6">
         <v>57</v>
       </c>
-      <c r="F574">
+      <c r="F574" s="6">
         <v>22</v>
       </c>
-      <c r="G574" t="s">
+      <c r="G574" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="575" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A575" t="s">
-        <v>7</v>
-      </c>
-      <c r="B575">
+      <c r="A575" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B575" s="6">
         <v>594</v>
       </c>
-      <c r="C575" s="2" t="s">
+      <c r="C575" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="D575" t="s">
-        <v>565</v>
-      </c>
-      <c r="E575">
+      <c r="D575" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E575" s="6">
         <v>60</v>
       </c>
-      <c r="F575">
+      <c r="F575" s="6">
         <v>23</v>
       </c>
-      <c r="G575" t="s">
+      <c r="G575" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -31761,7 +31784,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1185"/>
+  <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3B099A-7CCC-7C4F-ADEA-3BACEDB8A88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E783F8C7-5E71-D64B-9C1D-9DF92789128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4518,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
-      <selection activeCell="D575" sqref="D575"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9520,48 +9520,48 @@
       </c>
     </row>
     <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>7</v>
-      </c>
-      <c r="B218">
+      <c r="A218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="1">
         <v>1177</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D218" t="s">
-        <v>219</v>
-      </c>
-      <c r="E218">
+      <c r="D218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E218" s="1">
         <v>24</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="1">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>7</v>
-      </c>
-      <c r="B219">
+      <c r="A219" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" s="4">
         <v>1123</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D219" t="s">
-        <v>219</v>
-      </c>
-      <c r="E219">
+      <c r="D219" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E219" s="4">
         <v>29</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="4">
         <v>12</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -9842,25 +9842,25 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232">
+      <c r="A232" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" s="8">
         <v>1091</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D232" t="s">
-        <v>219</v>
-      </c>
-      <c r="E232">
+      <c r="D232" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E232" s="8">
         <v>70</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="8">
         <v>25</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -18236,7 +18236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -21042,7 +21042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21870,7 +21870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -22560,7 +22560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22629,7 +22629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>7</v>
       </c>
@@ -22951,7 +22951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -24354,7 +24354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24492,7 +24492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -25228,7 +25228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>7</v>
       </c>
@@ -25688,7 +25688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26792,7 +26792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26930,7 +26930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -27206,7 +27206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27298,7 +27298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -29345,7 +29345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29621,7 +29621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1092" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>7</v>
       </c>
@@ -29667,7 +29667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29989,7 +29989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30150,7 +30150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30334,7 +30334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>7</v>
       </c>

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105B10D6-B2CE-8841-920B-BC80A5C57370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFD3EE6-0C95-BA46-9050-9A559D9D7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4516,11 +4516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="E381" sqref="E381"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C420" sqref="C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4575,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5288,76 +5288,76 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4">
         <v>713</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="D34" t="s">
-        <v>565</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E34" s="4">
         <v>33</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4">
         <v>1372</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>34</v>
       </c>
-      <c r="F35">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="4">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4">
         <v>623</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="D36" t="s">
-        <v>565</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E36" s="4">
         <v>35</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="4">
         <v>12</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6024,30 +6024,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66">
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="4">
         <v>705</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D66" t="s">
-        <v>565</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E66" s="4">
         <v>65</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="4">
         <v>24</v>
       </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -6070,30 +6070,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="4">
         <v>865</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="D68" t="s">
-        <v>565</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E68" s="4">
         <v>67</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="4">
         <v>25</v>
       </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6185,30 +6185,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73">
+    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="4">
         <v>894</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="D73" t="s">
-        <v>565</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E73" s="4">
         <v>72</v>
       </c>
-      <c r="F73">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="4">
+        <v>26</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6254,30 +6254,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76">
-        <v>565</v>
-      </c>
-      <c r="C76" s="2" t="s">
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="6">
+        <v>565</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="D76" t="s">
-        <v>565</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E76" s="6">
         <v>75</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="6">
         <v>27</v>
       </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G76" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -6300,30 +6300,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78">
+    <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="4">
         <v>728</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D78" t="s">
-        <v>565</v>
-      </c>
-      <c r="E78">
+      <c r="D78" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E78" s="4">
         <v>77</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="4">
         <v>28</v>
       </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G78" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6346,30 +6346,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80">
+    <row r="80" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4">
         <v>906</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="D80" t="s">
-        <v>565</v>
-      </c>
-      <c r="E80">
+      <c r="D80" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E80" s="4">
         <v>79</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="4">
         <v>29</v>
       </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G80" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -6392,30 +6392,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82">
+    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="6">
         <v>724</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="D82" t="s">
-        <v>565</v>
-      </c>
-      <c r="E82">
+      <c r="D82" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E82" s="6">
         <v>81</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="6">
         <v>30</v>
       </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G82" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -12533,7 +12533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -13752,7 +13752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14029,52 +14029,52 @@
       </c>
     </row>
     <row r="414" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>7</v>
-      </c>
-      <c r="B414">
+      <c r="A414" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B414" s="4">
         <v>1311</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C414" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D414" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="4">
         <v>413</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="4">
         <v>59</v>
       </c>
-      <c r="G414" t="s">
+      <c r="G414" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>7</v>
-      </c>
-      <c r="B415">
+      <c r="A415" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415" s="4">
         <v>1282</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="C415" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D415" t="s">
+      <c r="D415" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="4">
         <v>414</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="4">
         <v>60</v>
       </c>
-      <c r="G415" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G415" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -14167,29 +14167,29 @@
       </c>
     </row>
     <row r="420" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
-        <v>7</v>
-      </c>
-      <c r="B420">
+      <c r="A420" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" s="6">
         <v>1427</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C420" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D420" t="s">
+      <c r="D420" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="6">
         <v>419</v>
       </c>
-      <c r="F420">
+      <c r="F420" s="6">
         <v>61</v>
       </c>
-      <c r="G420" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G420" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14235,7 +14235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -14695,7 +14695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -14833,7 +14833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15017,7 +15017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15132,7 +15132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -15454,7 +15454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -16558,7 +16558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -17294,7 +17294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -17317,7 +17317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -17386,7 +17386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -17501,7 +17501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -17708,7 +17708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -17777,7 +17777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -18030,7 +18030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -18053,7 +18053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -18168,7 +18168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18467,7 +18467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18490,7 +18490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -18605,7 +18605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -18674,7 +18674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -18789,7 +18789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -18927,7 +18927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -18973,7 +18973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -19019,7 +19019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -19065,7 +19065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -19226,7 +19226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -19249,7 +19249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>7</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>7</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>7</v>
       </c>
@@ -19548,7 +19548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -19663,7 +19663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -19709,7 +19709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -19732,7 +19732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -19801,7 +19801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>7</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -20077,7 +20077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -20146,7 +20146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -20169,7 +20169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -20215,7 +20215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>7</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -20514,7 +20514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>7</v>
       </c>
@@ -20652,7 +20652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -20675,7 +20675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>7</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -20859,7 +20859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>7</v>
       </c>
@@ -21020,7 +21020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>7</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -21296,7 +21296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>7</v>
       </c>
@@ -21388,7 +21388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -21526,7 +21526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -21572,7 +21572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -21595,7 +21595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -21618,7 +21618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -21641,7 +21641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -21687,7 +21687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21733,7 +21733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -21894,7 +21894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>7</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -21963,7 +21963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -21986,7 +21986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A766" s="4" t="s">
         <v>7</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -22170,7 +22170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -22193,7 +22193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -22216,7 +22216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -22239,7 +22239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -22262,7 +22262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -22285,7 +22285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -22354,7 +22354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22377,7 +22377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -22469,7 +22469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22584,7 +22584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -22653,7 +22653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>7</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
         <v>7</v>
       </c>
@@ -22768,7 +22768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>7</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>7</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -22929,7 +22929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -22975,7 +22975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -23021,7 +23021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>7</v>
       </c>
@@ -23044,7 +23044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>7</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -23159,7 +23159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -23182,7 +23182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>7</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -23297,7 +23297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>7</v>
       </c>
@@ -23389,7 +23389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -23412,7 +23412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -23435,7 +23435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -23504,7 +23504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>7</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -23573,7 +23573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -23596,7 +23596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>7</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -23665,7 +23665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -23757,7 +23757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -23780,7 +23780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -23826,7 +23826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -23849,7 +23849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -23895,7 +23895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -23964,7 +23964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -24010,7 +24010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -24102,7 +24102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>7</v>
       </c>
@@ -24125,7 +24125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>7</v>
       </c>
@@ -24148,7 +24148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -24240,7 +24240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>7</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>7</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -24309,7 +24309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -24355,7 +24355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24378,7 +24378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -24401,7 +24401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -24447,7 +24447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -24539,7 +24539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -24562,7 +24562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -24631,7 +24631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -24654,7 +24654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -24677,7 +24677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -24746,7 +24746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -24769,7 +24769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>7</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>7</v>
       </c>
@@ -24815,7 +24815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -24838,7 +24838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -24861,7 +24861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>7</v>
       </c>
@@ -24884,7 +24884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>7</v>
       </c>
@@ -24907,7 +24907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -24999,7 +24999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>7</v>
       </c>
@@ -25114,7 +25114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>7</v>
       </c>
@@ -25137,7 +25137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -25183,7 +25183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>7</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>7</v>
       </c>
@@ -25252,7 +25252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -25275,7 +25275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -25298,7 +25298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -25321,7 +25321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -25390,7 +25390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>7</v>
       </c>
@@ -25436,7 +25436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>7</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>7</v>
       </c>
@@ -25482,7 +25482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>7</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>7</v>
       </c>
@@ -25574,7 +25574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -25597,7 +25597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>7</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -25666,7 +25666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>7</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25712,7 +25712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>7</v>
       </c>
@@ -25735,7 +25735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>7</v>
       </c>
@@ -25781,7 +25781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>7</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -25827,7 +25827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>7</v>
       </c>
@@ -25850,7 +25850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>7</v>
       </c>
@@ -25873,7 +25873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>7</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>7</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>7</v>
       </c>
@@ -25965,7 +25965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>7</v>
       </c>
@@ -25988,7 +25988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>7</v>
       </c>
@@ -26011,7 +26011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>7</v>
       </c>
@@ -26034,7 +26034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>7</v>
       </c>
@@ -26057,7 +26057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>7</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26103,7 +26103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>7</v>
       </c>
@@ -26126,7 +26126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>7</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>7</v>
       </c>
@@ -26172,7 +26172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>7</v>
       </c>
@@ -26195,7 +26195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>7</v>
       </c>
@@ -26218,7 +26218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>7</v>
       </c>
@@ -26241,7 +26241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>7</v>
       </c>
@@ -26264,7 +26264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>7</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>7</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -26379,7 +26379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>7</v>
       </c>
@@ -26402,7 +26402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>7</v>
       </c>
@@ -26425,7 +26425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -26471,7 +26471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>7</v>
       </c>
@@ -26494,7 +26494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>7</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>7</v>
       </c>
@@ -26563,7 +26563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>7</v>
       </c>
@@ -26609,7 +26609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>7</v>
       </c>
@@ -26724,7 +26724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -26747,7 +26747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>7</v>
       </c>
@@ -26770,7 +26770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>7</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26816,7 +26816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>7</v>
       </c>
@@ -26862,7 +26862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>7</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -26977,7 +26977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>7</v>
       </c>
@@ -27046,7 +27046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>7</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>7</v>
       </c>
@@ -27092,7 +27092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>7</v>
       </c>
@@ -27115,7 +27115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>7</v>
       </c>
@@ -27138,7 +27138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>7</v>
       </c>
@@ -27161,7 +27161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27230,7 +27230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>7</v>
       </c>
@@ -27299,7 +27299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27322,7 +27322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -27368,7 +27368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>7</v>
       </c>
@@ -27391,7 +27391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>7</v>
       </c>
@@ -27414,7 +27414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>7</v>
       </c>
@@ -27437,7 +27437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>7</v>
       </c>
@@ -27460,7 +27460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>7</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>7</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>7</v>
       </c>
@@ -27552,7 +27552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>7</v>
       </c>
@@ -27575,7 +27575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>7</v>
       </c>
@@ -27598,7 +27598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>7</v>
       </c>
@@ -27621,7 +27621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>7</v>
       </c>
@@ -27667,7 +27667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>7</v>
       </c>
@@ -27690,7 +27690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>7</v>
       </c>
@@ -27736,7 +27736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -27759,7 +27759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>7</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>7</v>
       </c>
@@ -27805,7 +27805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>7</v>
       </c>
@@ -27828,7 +27828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>7</v>
       </c>
@@ -27851,7 +27851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>7</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>7</v>
       </c>
@@ -27897,7 +27897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>7</v>
       </c>
@@ -27920,7 +27920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>7</v>
       </c>
@@ -27943,7 +27943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>7</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>7</v>
       </c>
@@ -27989,7 +27989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>7</v>
       </c>
@@ -28012,7 +28012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -28035,7 +28035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>7</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>7</v>
       </c>
@@ -28104,7 +28104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>7</v>
       </c>
@@ -28127,7 +28127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>7</v>
       </c>
@@ -28150,7 +28150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>7</v>
       </c>
@@ -28173,7 +28173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>7</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>7</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>7</v>
       </c>
@@ -28242,7 +28242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>7</v>
       </c>
@@ -28265,7 +28265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>7</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>7</v>
       </c>
@@ -28380,7 +28380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>7</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>7</v>
       </c>
@@ -28472,7 +28472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>7</v>
       </c>
@@ -28495,7 +28495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>7</v>
       </c>
@@ -28518,7 +28518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>7</v>
       </c>
@@ -28564,7 +28564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>7</v>
       </c>
@@ -28610,7 +28610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>7</v>
       </c>
@@ -28633,7 +28633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>7</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>7</v>
       </c>
@@ -28702,7 +28702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>7</v>
       </c>
@@ -28725,7 +28725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>7</v>
       </c>
@@ -28771,7 +28771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>7</v>
       </c>
@@ -28794,7 +28794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>7</v>
       </c>
@@ -28817,7 +28817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>7</v>
       </c>
@@ -28840,7 +28840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>7</v>
       </c>
@@ -28863,7 +28863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>7</v>
       </c>
@@ -28886,7 +28886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>7</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>7</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>7</v>
       </c>
@@ -28955,7 +28955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>7</v>
       </c>
@@ -29024,7 +29024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>7</v>
       </c>
@@ -29047,7 +29047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>7</v>
       </c>
@@ -29070,7 +29070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>7</v>
       </c>
@@ -29139,7 +29139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>7</v>
       </c>
@@ -29162,7 +29162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>7</v>
       </c>
@@ -29185,7 +29185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>7</v>
       </c>
@@ -29208,7 +29208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>7</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>7</v>
       </c>
@@ -29277,7 +29277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>7</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>7</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>7</v>
       </c>
@@ -29346,7 +29346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29392,7 +29392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -29415,7 +29415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>7</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>7</v>
       </c>
@@ -29461,7 +29461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>7</v>
       </c>
@@ -29484,7 +29484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>7</v>
       </c>
@@ -29507,7 +29507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>7</v>
       </c>
@@ -29530,7 +29530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>7</v>
       </c>
@@ -29553,7 +29553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>7</v>
       </c>
@@ -29576,7 +29576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>7</v>
       </c>
@@ -29599,7 +29599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>7</v>
       </c>
@@ -29622,7 +29622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1092" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>7</v>
       </c>
@@ -29645,7 +29645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>7</v>
       </c>
@@ -29668,7 +29668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29691,7 +29691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>7</v>
       </c>
@@ -29737,7 +29737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>7</v>
       </c>
@@ -29760,7 +29760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>7</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>7</v>
       </c>
@@ -29829,7 +29829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29852,7 +29852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>7</v>
       </c>
@@ -29875,7 +29875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>7</v>
       </c>
@@ -29898,7 +29898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>7</v>
       </c>
@@ -29944,7 +29944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>7</v>
       </c>
@@ -29990,7 +29990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30036,7 +30036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>7</v>
       </c>
@@ -30059,7 +30059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>7</v>
       </c>
@@ -30082,7 +30082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>7</v>
       </c>
@@ -30105,7 +30105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>7</v>
       </c>
@@ -30128,7 +30128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>7</v>
       </c>
@@ -30151,7 +30151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>7</v>
       </c>
@@ -30197,7 +30197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>7</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -30289,7 +30289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>7</v>
       </c>
@@ -30312,7 +30312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>7</v>
       </c>
@@ -30381,7 +30381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>7</v>
       </c>
@@ -30427,7 +30427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>7</v>
       </c>
@@ -30473,7 +30473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>7</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -30519,7 +30519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>7</v>
       </c>
@@ -30542,7 +30542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>7</v>
       </c>
@@ -30565,7 +30565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>7</v>
       </c>
@@ -30588,7 +30588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>7</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>7</v>
       </c>
@@ -30634,7 +30634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>7</v>
       </c>
@@ -30657,7 +30657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>7</v>
       </c>
@@ -30680,7 +30680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>7</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>7</v>
       </c>
@@ -30726,7 +30726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>7</v>
       </c>
@@ -30749,7 +30749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>7</v>
       </c>
@@ -30772,7 +30772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>7</v>
       </c>
@@ -30795,7 +30795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>7</v>
       </c>
@@ -30818,7 +30818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>7</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>7</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>7</v>
       </c>
@@ -30956,7 +30956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>7</v>
       </c>
@@ -30979,7 +30979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>7</v>
       </c>
@@ -31002,7 +31002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>7</v>
       </c>
@@ -31048,7 +31048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -31094,7 +31094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>7</v>
       </c>
@@ -31117,7 +31117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>7</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>7</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>7</v>
       </c>
@@ -31186,7 +31186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>7</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>7</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>7</v>
       </c>
@@ -31278,7 +31278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>7</v>
       </c>
@@ -31301,7 +31301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>7</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>7</v>
       </c>
@@ -31347,7 +31347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>7</v>
       </c>
@@ -31370,7 +31370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>7</v>
       </c>
@@ -31393,7 +31393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>7</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>7</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>7</v>
       </c>
@@ -31485,7 +31485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>7</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>7</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>7</v>
       </c>
@@ -31554,7 +31554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>7</v>
       </c>
@@ -31577,7 +31577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>7</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>7</v>
       </c>
@@ -31623,7 +31623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31646,7 +31646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31669,7 +31669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31692,7 +31692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31715,7 +31715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31738,7 +31738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31761,7 +31761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -31786,11 +31786,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MacKenzie Cited_2006:2010"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">
       <sortCondition ref="E1:E1185"/>
     </sortState>

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B5FC1-8B8C-254A-A37A-3D1B4FC3BD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC3DDE2-27FD-E145-934A-3557611D5217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4516,11 +4516,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4552,7 +4553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5358,29 +5359,29 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37">
+      <c r="A37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4">
         <v>519</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="D37" t="s">
-        <v>565</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E37" s="4">
         <v>36</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>13</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -6439,29 +6440,29 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84">
+      <c r="A84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="4">
         <v>710</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D84" t="s">
-        <v>565</v>
-      </c>
-      <c r="E84">
+      <c r="D84" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E84" s="4">
         <v>83</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="4">
         <v>31</v>
       </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G84" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6531,25 +6532,25 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88">
+      <c r="A88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="6">
         <v>491</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="D88" t="s">
-        <v>565</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E88" s="6">
         <v>87</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="6">
         <v>32</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6599,7 +6600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>7</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -8922,7 +8923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9106,7 +9107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -9658,7 +9659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
@@ -9704,7 +9705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>7</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>7</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>7</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>7</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10210,7 +10211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -10233,7 +10234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>7</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>7</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -11107,7 +11108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -11130,7 +11131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -11176,7 +11177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11199,7 +11200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -11222,7 +11223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>7</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -11360,7 +11361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11383,7 +11384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -11429,7 +11430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>7</v>
       </c>
@@ -11452,7 +11453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -11521,7 +11522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11636,7 +11637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>7</v>
       </c>
@@ -11797,7 +11798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
         <v>7</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11935,7 +11936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -11981,7 +11982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -12073,7 +12074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12119,7 +12120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -12211,7 +12212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>7</v>
       </c>
@@ -12234,7 +12235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -12303,7 +12304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -12441,7 +12442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12579,7 +12580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>7</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -12924,7 +12925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -12947,7 +12948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -12993,7 +12994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
         <v>7</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="s">
         <v>7</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>7</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -13154,7 +13155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>7</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -13200,7 +13201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>7</v>
       </c>
@@ -13269,7 +13270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>7</v>
       </c>
@@ -13315,7 +13316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>7</v>
       </c>
@@ -13407,7 +13408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -13453,7 +13454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13660,7 +13661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>7</v>
       </c>
@@ -13683,7 +13684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13729,7 +13730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -13798,7 +13799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13821,7 +13822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>7</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>7</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14120,7 +14121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -14166,7 +14167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>7</v>
       </c>
@@ -14189,7 +14190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14281,7 +14282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -14350,7 +14351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -14465,7 +14466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14488,7 +14489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -14511,7 +14512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -14580,7 +14581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -14603,7 +14604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -14695,7 +14696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14879,7 +14880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -14948,7 +14949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -14971,7 +14972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -14994,7 +14995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15063,7 +15064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15086,7 +15087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15132,7 +15133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -15201,7 +15202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -15247,7 +15248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -15270,7 +15271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -15362,7 +15363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -15385,7 +15386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -15431,7 +15432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -15454,7 +15455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -15477,7 +15478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -15592,7 +15593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -15615,7 +15616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -15638,7 +15639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -15684,7 +15685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -15730,7 +15731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -15753,7 +15754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -15799,7 +15800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>7</v>
       </c>
@@ -15868,7 +15869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -15914,7 +15915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -15937,7 +15938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -15960,7 +15961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -16029,7 +16030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>7</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -16121,7 +16122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>7</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -16167,7 +16168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -16190,7 +16191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -16236,7 +16237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -16259,7 +16260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -16282,7 +16283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -16397,7 +16398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -16420,7 +16421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -16443,7 +16444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -16466,7 +16467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -16558,7 +16559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -16581,7 +16582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -16604,7 +16605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -16719,7 +16720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>7</v>
       </c>
@@ -16765,7 +16766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -16788,7 +16789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -16903,7 +16904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -16926,7 +16927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -16949,7 +16950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -16995,7 +16996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -17064,7 +17065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -17087,7 +17088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -17133,7 +17134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -17156,7 +17157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>7</v>
       </c>
@@ -17179,7 +17180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -17271,7 +17272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>7</v>
       </c>
@@ -17294,7 +17295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -17317,7 +17318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -17340,7 +17341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>7</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -17432,7 +17433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -17478,7 +17479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>7</v>
       </c>
@@ -17616,7 +17617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>7</v>
       </c>
@@ -17662,7 +17663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>7</v>
       </c>
@@ -17685,7 +17686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -17708,7 +17709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -17731,7 +17732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -17800,7 +17801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -17846,7 +17847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -17869,7 +17870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>7</v>
       </c>
@@ -17892,7 +17893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -17915,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -17938,7 +17939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>7</v>
       </c>
@@ -17961,7 +17962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>7</v>
       </c>
@@ -17984,7 +17985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>7</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -18122,7 +18123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>7</v>
       </c>
@@ -18168,7 +18169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -18191,7 +18192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -18214,7 +18215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>7</v>
       </c>
@@ -18237,7 +18238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -18329,7 +18330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18398,7 +18399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -18444,7 +18445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>7</v>
       </c>
@@ -18490,7 +18491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -18651,7 +18652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -18697,7 +18698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -18743,7 +18744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -18789,7 +18790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -18858,7 +18859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>7</v>
       </c>
@@ -18881,7 +18882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>7</v>
       </c>
@@ -18904,7 +18905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>7</v>
       </c>
@@ -18927,7 +18928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -18950,7 +18951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>7</v>
       </c>
@@ -19042,7 +19043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -19065,7 +19066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -19088,7 +19089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>7</v>
       </c>
@@ -19134,7 +19135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>7</v>
       </c>
@@ -19180,7 +19181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -19226,7 +19227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -19272,7 +19273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -19295,7 +19296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -19318,7 +19319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>7</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -19364,7 +19365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>7</v>
       </c>
@@ -19387,7 +19388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>7</v>
       </c>
@@ -19433,7 +19434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -19456,7 +19457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>7</v>
       </c>
@@ -19502,7 +19503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>7</v>
       </c>
@@ -19525,7 +19526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>7</v>
       </c>
@@ -19548,7 +19549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -19571,7 +19572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>7</v>
       </c>
@@ -19594,7 +19595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -19617,7 +19618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -19686,7 +19687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -19709,7 +19710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -19732,7 +19733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -19755,7 +19756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -19778,7 +19779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -19893,7 +19894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>7</v>
       </c>
@@ -19939,7 +19940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>7</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -20008,7 +20009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -20031,7 +20032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>7</v>
       </c>
@@ -20054,7 +20055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>7</v>
       </c>
@@ -20100,7 +20101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -20123,7 +20124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>7</v>
       </c>
@@ -20146,7 +20147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -20192,7 +20193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -20215,7 +20216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>7</v>
       </c>
@@ -20307,7 +20308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -20376,7 +20377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>7</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -20537,7 +20538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -20606,7 +20607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>7</v>
       </c>
@@ -20629,7 +20630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>7</v>
       </c>
@@ -20652,7 +20653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>7</v>
       </c>
@@ -20721,7 +20722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -20744,7 +20745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -20767,7 +20768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>7</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -20951,7 +20952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -20974,7 +20975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>7</v>
       </c>
@@ -20997,7 +20998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>7</v>
       </c>
@@ -21020,7 +21021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -21043,7 +21044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21135,7 +21136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>7</v>
       </c>
@@ -21158,7 +21159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -21181,7 +21182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>7</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>7</v>
       </c>
@@ -21227,7 +21228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -21250,7 +21251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -21273,7 +21274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>7</v>
       </c>
@@ -21296,7 +21297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -21319,7 +21320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -21342,7 +21343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>7</v>
       </c>
@@ -21365,7 +21366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>7</v>
       </c>
@@ -21388,7 +21389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -21411,7 +21412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -21434,7 +21435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>7</v>
       </c>
@@ -21457,7 +21458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>7</v>
       </c>
@@ -21526,7 +21527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -21549,7 +21550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>7</v>
       </c>
@@ -21572,7 +21573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -21595,7 +21596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -21733,7 +21734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -21756,7 +21757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -21825,7 +21826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -21848,7 +21849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -21871,7 +21872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -21894,7 +21895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -21917,7 +21918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>7</v>
       </c>
@@ -21940,7 +21941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -21986,7 +21987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -22009,7 +22010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -22055,7 +22056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -22078,7 +22079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>7</v>
       </c>
@@ -22101,7 +22102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>7</v>
       </c>
@@ -22124,7 +22125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="4" t="s">
         <v>7</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -22216,7 +22217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -22239,7 +22240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -22331,7 +22332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -22446,7 +22447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -22469,7 +22470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -22538,7 +22539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -22584,7 +22585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -22630,7 +22631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>7</v>
       </c>
@@ -22653,7 +22654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>7</v>
       </c>
@@ -22676,7 +22677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -22722,7 +22723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>7</v>
       </c>
@@ -22745,7 +22746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
         <v>7</v>
       </c>
@@ -22791,7 +22792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -22837,7 +22838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>7</v>
       </c>
@@ -22860,7 +22861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="4" t="s">
         <v>7</v>
       </c>
@@ -22883,7 +22884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -22906,7 +22907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -22975,7 +22976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -23021,7 +23022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>7</v>
       </c>
@@ -23044,7 +23045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>7</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -23205,7 +23206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>7</v>
       </c>
@@ -23228,7 +23229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>7</v>
       </c>
@@ -23251,7 +23252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -23274,7 +23275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -23320,7 +23321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -23343,7 +23344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>7</v>
       </c>
@@ -23366,7 +23367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>7</v>
       </c>
@@ -23412,7 +23413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -23458,7 +23459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -23504,7 +23505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="4" t="s">
         <v>7</v>
       </c>
@@ -23550,7 +23551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="828" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>7</v>
       </c>
@@ -23596,7 +23597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>7</v>
       </c>
@@ -23734,7 +23735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -23780,7 +23781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -23803,7 +23804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>7</v>
       </c>
@@ -23826,7 +23827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -23895,7 +23896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -23918,7 +23919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -24033,7 +24034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -24079,7 +24080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -24102,7 +24103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>7</v>
       </c>
@@ -24125,7 +24126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="4" t="s">
         <v>7</v>
       </c>
@@ -24148,7 +24149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -24194,7 +24195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -24217,7 +24218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>7</v>
       </c>
@@ -24240,7 +24241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>7</v>
       </c>
@@ -24263,7 +24264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="4" t="s">
         <v>7</v>
       </c>
@@ -24332,7 +24333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>7</v>
       </c>
@@ -24355,7 +24356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24424,7 +24425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -24470,7 +24471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="868" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>7</v>
       </c>
@@ -24516,7 +24517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>7</v>
       </c>
@@ -24654,7 +24655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -24700,7 +24701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -24769,7 +24770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>7</v>
       </c>
@@ -24792,7 +24793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
         <v>7</v>
       </c>
@@ -24838,7 +24839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -24861,7 +24862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>7</v>
       </c>
@@ -24884,7 +24885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>7</v>
       </c>
@@ -24907,7 +24908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -24930,7 +24931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -24953,7 +24954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -25022,7 +25023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="892" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>7</v>
       </c>
@@ -25068,7 +25069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -25114,7 +25115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>7</v>
       </c>
@@ -25137,7 +25138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -25160,7 +25161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>7</v>
       </c>
@@ -25183,7 +25184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>7</v>
       </c>
@@ -25206,7 +25207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>7</v>
       </c>
@@ -25229,7 +25230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>7</v>
       </c>
@@ -25252,7 +25253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -25321,7 +25322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -25344,7 +25345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>7</v>
       </c>
@@ -25367,7 +25368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>7</v>
       </c>
@@ -25390,7 +25391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>7</v>
       </c>
@@ -25413,7 +25414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>7</v>
       </c>
@@ -25505,7 +25506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>7</v>
       </c>
@@ -25574,7 +25575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -25597,7 +25598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -25666,7 +25667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>7</v>
       </c>
@@ -25735,7 +25736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -25758,7 +25759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>7</v>
       </c>
@@ -25850,7 +25851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>7</v>
       </c>
@@ -25919,7 +25920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>7</v>
       </c>
@@ -25942,7 +25943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>7</v>
       </c>
@@ -25988,7 +25989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>7</v>
       </c>
@@ -26011,7 +26012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>7</v>
       </c>
@@ -26034,7 +26035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>7</v>
       </c>
@@ -26126,7 +26127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>7</v>
       </c>
@@ -26149,7 +26150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>7</v>
       </c>
@@ -26218,7 +26219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>7</v>
       </c>
@@ -26287,7 +26288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>7</v>
       </c>
@@ -26333,7 +26334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="949" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>7</v>
       </c>
@@ -26356,7 +26357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="950" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>7</v>
       </c>
@@ -26402,7 +26403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>7</v>
       </c>
@@ -26425,7 +26426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -26448,7 +26449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -26471,7 +26472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>7</v>
       </c>
@@ -26494,7 +26495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>7</v>
       </c>
@@ -26517,7 +26518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>7</v>
       </c>
@@ -26586,7 +26587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>7</v>
       </c>
@@ -26609,7 +26610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -26655,7 +26656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>7</v>
       </c>
@@ -26678,7 +26679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>7</v>
       </c>
@@ -26701,7 +26702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="965" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>7</v>
       </c>
@@ -26724,7 +26725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -26770,7 +26771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>7</v>
       </c>
@@ -26793,7 +26794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26816,7 +26817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>7</v>
       </c>
@@ -26839,7 +26840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="971" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>7</v>
       </c>
@@ -26862,7 +26863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>7</v>
       </c>
@@ -26885,7 +26886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="973" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>7</v>
       </c>
@@ -26908,7 +26909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="974" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>7</v>
       </c>
@@ -26954,7 +26955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="976" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>7</v>
       </c>
@@ -26977,7 +26978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -27000,7 +27001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>7</v>
       </c>
@@ -27046,7 +27047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>7</v>
       </c>
@@ -27092,7 +27093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>7</v>
       </c>
@@ -27115,7 +27116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>7</v>
       </c>
@@ -27138,7 +27139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>7</v>
       </c>
@@ -27276,7 +27277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>7</v>
       </c>
@@ -27299,7 +27300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27345,7 +27346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -27391,7 +27392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>7</v>
       </c>
@@ -27414,7 +27415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>7</v>
       </c>
@@ -27483,7 +27484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>7</v>
       </c>
@@ -27529,7 +27530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>7</v>
       </c>
@@ -27621,7 +27622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>7</v>
       </c>
@@ -27644,7 +27645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>7</v>
       </c>
@@ -27667,7 +27668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>7</v>
       </c>
@@ -27690,7 +27691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>7</v>
       </c>
@@ -27713,7 +27714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>7</v>
       </c>
@@ -27828,7 +27829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>7</v>
       </c>
@@ -27920,7 +27921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>7</v>
       </c>
@@ -27943,7 +27944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>7</v>
       </c>
@@ -28012,7 +28013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -28035,7 +28036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -28058,7 +28059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>7</v>
       </c>
@@ -28242,7 +28243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>7</v>
       </c>
@@ -28311,7 +28312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>7</v>
       </c>
@@ -28334,7 +28335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>7</v>
       </c>
@@ -28357,7 +28358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>7</v>
       </c>
@@ -28403,7 +28404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>7</v>
       </c>
@@ -28426,7 +28427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>7</v>
       </c>
@@ -28449,7 +28450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>7</v>
       </c>
@@ -28495,7 +28496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>7</v>
       </c>
@@ -28541,7 +28542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>7</v>
       </c>
@@ -28587,7 +28588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>7</v>
       </c>
@@ -28656,7 +28657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>7</v>
       </c>
@@ -28679,7 +28680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>7</v>
       </c>
@@ -28702,7 +28703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>7</v>
       </c>
@@ -28748,7 +28749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>7</v>
       </c>
@@ -28817,7 +28818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>7</v>
       </c>
@@ -28840,7 +28841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>7</v>
       </c>
@@ -28886,7 +28887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>7</v>
       </c>
@@ -28955,7 +28956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>7</v>
       </c>
@@ -28978,7 +28979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>7</v>
       </c>
@@ -29001,7 +29002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>7</v>
       </c>
@@ -29070,7 +29071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>7</v>
       </c>
@@ -29093,7 +29094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1069" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>7</v>
       </c>
@@ -29116,7 +29117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>7</v>
       </c>
@@ -29139,7 +29140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>7</v>
       </c>
@@ -29185,7 +29186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>7</v>
       </c>
@@ -29208,7 +29209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>7</v>
       </c>
@@ -29231,7 +29232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1075" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
         <v>7</v>
       </c>
@@ -29277,7 +29278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>7</v>
       </c>
@@ -29300,7 +29301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>7</v>
       </c>
@@ -29323,7 +29324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>7</v>
       </c>
@@ -29346,7 +29347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29369,7 +29370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>7</v>
       </c>
@@ -29415,7 +29416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>7</v>
       </c>
@@ -29438,7 +29439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>7</v>
       </c>
@@ -29484,7 +29485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>7</v>
       </c>
@@ -29507,7 +29508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>7</v>
       </c>
@@ -29553,7 +29554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>7</v>
       </c>
@@ -29599,7 +29600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>7</v>
       </c>
@@ -29622,7 +29623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1092" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>7</v>
       </c>
@@ -29645,7 +29646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>7</v>
       </c>
@@ -29691,7 +29692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>7</v>
       </c>
@@ -29714,7 +29715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1096" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>7</v>
       </c>
@@ -29737,7 +29738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>7</v>
       </c>
@@ -29760,7 +29761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>7</v>
       </c>
@@ -29783,7 +29784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1099" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>7</v>
       </c>
@@ -29875,7 +29876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>7</v>
       </c>
@@ -29921,7 +29922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1105" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>7</v>
       </c>
@@ -30013,7 +30014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>7</v>
       </c>
@@ -30036,7 +30037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>7</v>
       </c>
@@ -30105,7 +30106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>7</v>
       </c>
@@ -30174,7 +30175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>7</v>
       </c>
@@ -30243,7 +30244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1119" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
         <v>7</v>
       </c>
@@ -30266,7 +30267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
         <v>7</v>
       </c>
@@ -30289,7 +30290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>7</v>
       </c>
@@ -30312,7 +30313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>7</v>
       </c>
@@ -30335,7 +30336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1123" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>7</v>
       </c>
@@ -30358,7 +30359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1124" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>7</v>
       </c>
@@ -30381,7 +30382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>7</v>
       </c>
@@ -30404,7 +30405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1126" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
         <v>7</v>
       </c>
@@ -30450,7 +30451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1128" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
         <v>7</v>
       </c>
@@ -30473,7 +30474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>7</v>
       </c>
@@ -30496,7 +30497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -30588,7 +30589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>7</v>
       </c>
@@ -30611,7 +30612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>7</v>
       </c>
@@ -30634,7 +30635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>7</v>
       </c>
@@ -30680,7 +30681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>7</v>
       </c>
@@ -30772,7 +30773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>7</v>
       </c>
@@ -30841,7 +30842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
         <v>7</v>
       </c>
@@ -30910,7 +30911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
         <v>7</v>
       </c>
@@ -30933,7 +30934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1149" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
         <v>7</v>
       </c>
@@ -30979,7 +30980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>7</v>
       </c>
@@ -31025,7 +31026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1153" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
         <v>7</v>
       </c>
@@ -31048,7 +31049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -31071,7 +31072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
         <v>7</v>
       </c>
@@ -31094,7 +31095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>7</v>
       </c>
@@ -31140,7 +31141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>7</v>
       </c>
@@ -31186,7 +31187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>7</v>
       </c>
@@ -31209,7 +31210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>7</v>
       </c>
@@ -31232,7 +31233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>7</v>
       </c>
@@ -31255,7 +31256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1163" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>7</v>
       </c>
@@ -31278,7 +31279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>7</v>
       </c>
@@ -31324,7 +31325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>7</v>
       </c>
@@ -31347,7 +31348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>7</v>
       </c>
@@ -31462,7 +31463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>7</v>
       </c>
@@ -31485,7 +31486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>7</v>
       </c>
@@ -31508,7 +31509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>7</v>
       </c>
@@ -31577,7 +31578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>7</v>
       </c>
@@ -31600,7 +31601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>7</v>
       </c>
@@ -31646,7 +31647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31715,7 +31716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31786,6 +31787,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MacKenzie Cited_2016:2021"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">
       <sortCondition ref="E1:E1185"/>
     </sortState>

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC3DDE2-27FD-E145-934A-3557611D5217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1487DEC3-9810-3E4C-8DCF-3C3ABA6FCC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4520,8 +4520,8 @@
   <dimension ref="A1:G1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4576,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5427,30 +5427,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40">
+    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
         <v>1015</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D40" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="4">
         <v>39</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -6209,26 +6209,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74">
+    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="4">
         <v>1000</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D74" t="s">
-        <v>219</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="4">
         <v>73</v>
       </c>
-      <c r="F74">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F74" s="4">
+        <v>26</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -6278,30 +6278,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77">
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="4">
         <v>1060</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D77" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77">
+      <c r="D77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="4">
         <v>76</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="4">
         <v>27</v>
       </c>
-      <c r="G77" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G77" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6370,30 +6370,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81">
+    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="4">
         <v>1178</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D81" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="4">
         <v>80</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="4">
         <v>28</v>
       </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="G81" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -6416,30 +6416,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83">
+    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="6">
         <v>1036</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D83" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="6">
         <v>82</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="6">
         <v>29</v>
       </c>
-      <c r="G83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="G83" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -21573,7 +21573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -23068,7 +23068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -23758,7 +23758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -24057,7 +24057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -24172,7 +24172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -24678,7 +24678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -24701,7 +24701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>7</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>7</v>
       </c>
@@ -25253,7 +25253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -25322,7 +25322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>7</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>7</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>7</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>7</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -25598,7 +25598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -25621,7 +25621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>7</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>7</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>7</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>7</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>7</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>7</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>7</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>7</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>7</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>7</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>7</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>7</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>7</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>7</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>7</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>7</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>7</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>7</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>7</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>7</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>7</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>7</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>7</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>7</v>
       </c>
@@ -26794,7 +26794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>7</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>7</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>7</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>7</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>7</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -27185,7 +27185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>7</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>7</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>7</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>7</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>7</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>7</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>7</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>7</v>
       </c>
@@ -27599,7 +27599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>7</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>7</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>7</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>7</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>7</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>7</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>7</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>7</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>7</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>7</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>7</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>7</v>
       </c>
@@ -28013,7 +28013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -28082,7 +28082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>7</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>7</v>
       </c>
@@ -28128,7 +28128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>7</v>
       </c>
@@ -28151,7 +28151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>7</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>7</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>7</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>7</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>7</v>
       </c>
@@ -28289,7 +28289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>7</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>7</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>7</v>
       </c>
@@ -28519,7 +28519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>7</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>7</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>7</v>
       </c>
@@ -28634,7 +28634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>7</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>7</v>
       </c>
@@ -28703,7 +28703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>7</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>7</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>7</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>7</v>
       </c>
@@ -28864,7 +28864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>7</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>7</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>7</v>
       </c>
@@ -29025,7 +29025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>7</v>
       </c>
@@ -29048,7 +29048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>7</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>7</v>
       </c>
@@ -29140,7 +29140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>7</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>7</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>7</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>7</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>7</v>
       </c>
@@ -29278,7 +29278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>7</v>
       </c>
@@ -29301,7 +29301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>7</v>
       </c>
@@ -29324,7 +29324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>7</v>
       </c>
@@ -29347,7 +29347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>7</v>
       </c>
@@ -29462,7 +29462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>7</v>
       </c>
@@ -29485,7 +29485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>7</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>7</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>7</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>7</v>
       </c>
@@ -29577,7 +29577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>7</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>7</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>7</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29692,7 +29692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>7</v>
       </c>
@@ -29738,7 +29738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>7</v>
       </c>
@@ -29761,7 +29761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>7</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>7</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>7</v>
       </c>
@@ -29899,7 +29899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>7</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>7</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30037,7 +30037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>7</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>7</v>
       </c>
@@ -30083,7 +30083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>7</v>
       </c>
@@ -30106,7 +30106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>7</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>7</v>
       </c>
@@ -30152,7 +30152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30175,7 +30175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>7</v>
       </c>
@@ -30198,7 +30198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>7</v>
       </c>
@@ -30221,7 +30221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>7</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>7</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>7</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>7</v>
       </c>
@@ -30474,7 +30474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>7</v>
       </c>
@@ -30497,7 +30497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>7</v>
       </c>
@@ -30543,7 +30543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>7</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>7</v>
       </c>
@@ -30589,7 +30589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>7</v>
       </c>
@@ -30612,7 +30612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>7</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>7</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>7</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>7</v>
       </c>
@@ -30704,7 +30704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>7</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>7</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>7</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>7</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>7</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>7</v>
       </c>
@@ -30888,7 +30888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>7</v>
       </c>
@@ -30957,7 +30957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>7</v>
       </c>
@@ -31003,7 +31003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>7</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>7</v>
       </c>
@@ -31118,7 +31118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>7</v>
       </c>
@@ -31141,7 +31141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>7</v>
       </c>
@@ -31164,7 +31164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>7</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>7</v>
       </c>
@@ -31233,7 +31233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>7</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>7</v>
       </c>
@@ -31302,7 +31302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>7</v>
       </c>
@@ -31348,7 +31348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>7</v>
       </c>
@@ -31371,7 +31371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>7</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>7</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>7</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>7</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>7</v>
       </c>
@@ -31509,7 +31509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>7</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>7</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>7</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31647,7 +31647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31693,7 +31693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31762,7 +31762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -31789,7 +31789,7 @@
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="MacKenzie Cited_2016:2021"/>
+        <filter val="MacKenzie Cited_2011:2015"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1487DEC3-9810-3E4C-8DCF-3C3ABA6FCC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CB865-1825-4144-8090-AE2E722DB685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4519,9 +4519,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4576,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5450,26 +5450,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>847</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="D41" t="s">
-        <v>565</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E41" s="4">
         <v>40</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>15</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -6554,30 +6554,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89">
+    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="6">
         <v>794</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="D89" t="s">
-        <v>565</v>
-      </c>
-      <c r="E89">
+      <c r="D89" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E89" s="6">
         <v>88</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="6">
         <v>33</v>
       </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G89" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -13201,7 +13201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13684,7 +13684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -16536,7 +16536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -16789,7 +16789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -17295,7 +17295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -17364,7 +17364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -20952,7 +20952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -21389,7 +21389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -21412,7 +21412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -21573,7 +21573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -21596,7 +21596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -21849,7 +21849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -21872,7 +21872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22470,7 +22470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22585,7 +22585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -22884,7 +22884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -23068,7 +23068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -23252,7 +23252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -23275,7 +23275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -23321,7 +23321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -23735,7 +23735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -23758,7 +23758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -23827,7 +23827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -23919,7 +23919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -24057,7 +24057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -24172,7 +24172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -24678,7 +24678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -24701,7 +24701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -24839,7 +24839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -25069,7 +25069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>7</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>7</v>
       </c>
@@ -25253,7 +25253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -25322,7 +25322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>7</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>7</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>7</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>7</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -25598,7 +25598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -25621,7 +25621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>7</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>7</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>7</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>7</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>7</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>7</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>7</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>7</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>7</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>7</v>
       </c>
@@ -26012,7 +26012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>7</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>7</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>7</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>7</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>7</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>7</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>7</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>7</v>
       </c>
@@ -26426,7 +26426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -26449,7 +26449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>7</v>
       </c>
@@ -26495,7 +26495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>7</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>7</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>7</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>7</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>7</v>
       </c>
@@ -26794,7 +26794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>7</v>
       </c>
@@ -26863,7 +26863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>7</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>7</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>7</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>7</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -27185,7 +27185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>7</v>
       </c>
@@ -27300,7 +27300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -27346,7 +27346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>7</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>7</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>7</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>7</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>7</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>7</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>7</v>
       </c>
@@ -27599,7 +27599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>7</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>7</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>7</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>7</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>7</v>
       </c>
@@ -27829,7 +27829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>7</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>7</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>7</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>7</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>7</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>7</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>7</v>
       </c>
@@ -28013,7 +28013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -28036,7 +28036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -28082,7 +28082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>7</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>7</v>
       </c>
@@ -28128,7 +28128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>7</v>
       </c>
@@ -28151,7 +28151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>7</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>7</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>7</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>7</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>7</v>
       </c>
@@ -28289,7 +28289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>7</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>7</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>7</v>
       </c>
@@ -28519,7 +28519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>7</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>7</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>7</v>
       </c>
@@ -28634,7 +28634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>7</v>
       </c>
@@ -28680,7 +28680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>7</v>
       </c>
@@ -28703,7 +28703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>7</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>7</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>7</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>7</v>
       </c>
@@ -28864,7 +28864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>7</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>7</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>7</v>
       </c>
@@ -29025,7 +29025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>7</v>
       </c>
@@ -29048,7 +29048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>7</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>7</v>
       </c>
@@ -29140,7 +29140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>7</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>7</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>7</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>7</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>7</v>
       </c>
@@ -29278,7 +29278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>7</v>
       </c>
@@ -29301,7 +29301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>7</v>
       </c>
@@ -29324,7 +29324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>7</v>
       </c>
@@ -29347,7 +29347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -29416,7 +29416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>7</v>
       </c>
@@ -29462,7 +29462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>7</v>
       </c>
@@ -29485,7 +29485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>7</v>
       </c>
@@ -29508,7 +29508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>7</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>7</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>7</v>
       </c>
@@ -29577,7 +29577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>7</v>
       </c>
@@ -29600,7 +29600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>7</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>7</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29692,7 +29692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>7</v>
       </c>
@@ -29738,7 +29738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>7</v>
       </c>
@@ -29761,7 +29761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>7</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>7</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>7</v>
       </c>
@@ -29899,7 +29899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>7</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>7</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30037,7 +30037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>7</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>7</v>
       </c>
@@ -30083,7 +30083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>7</v>
       </c>
@@ -30106,7 +30106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>7</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>7</v>
       </c>
@@ -30152,7 +30152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30175,7 +30175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>7</v>
       </c>
@@ -30198,7 +30198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>7</v>
       </c>
@@ -30221,7 +30221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>7</v>
       </c>
@@ -30313,7 +30313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>7</v>
       </c>
@@ -30382,7 +30382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>7</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>7</v>
       </c>
@@ -30474,7 +30474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>7</v>
       </c>
@@ -30497,7 +30497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>7</v>
       </c>
@@ -30543,7 +30543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>7</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>7</v>
       </c>
@@ -30589,7 +30589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>7</v>
       </c>
@@ -30612,7 +30612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>7</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>7</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>7</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>7</v>
       </c>
@@ -30704,7 +30704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>7</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>7</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>7</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>7</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>7</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>7</v>
       </c>
@@ -30888,7 +30888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>7</v>
       </c>
@@ -30957,7 +30957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>7</v>
       </c>
@@ -31003,7 +31003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>7</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -31095,7 +31095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>7</v>
       </c>
@@ -31118,7 +31118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>7</v>
       </c>
@@ -31141,7 +31141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>7</v>
       </c>
@@ -31164,7 +31164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>7</v>
       </c>
@@ -31187,7 +31187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>7</v>
       </c>
@@ -31233,7 +31233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>7</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>7</v>
       </c>
@@ -31302,7 +31302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>7</v>
       </c>
@@ -31348,7 +31348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>7</v>
       </c>
@@ -31371,7 +31371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>7</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>7</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>7</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>7</v>
       </c>
@@ -31486,7 +31486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>7</v>
       </c>
@@ -31509,7 +31509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>7</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>7</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>7</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31647,7 +31647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31693,7 +31693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31716,7 +31716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31762,7 +31762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -31789,7 +31789,7 @@
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="MacKenzie Cited_2011:2015"/>
+        <filter val="MacKenzie Cited_2016:2021"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416CB865-1825-4144-8090-AE2E722DB685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F884F-9A97-FB4C-A9FA-A3671CBE1F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4520,8 +4520,8 @@
   <dimension ref="A1:G1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G89" sqref="G89"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I420" sqref="I420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4553,7 +4553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5450,8 +5450,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="4">
@@ -5473,30 +5473,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4">
         <v>1279</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>41</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>8</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>7</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>7</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>7</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>7</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>7</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
         <v>7</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>7</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>7</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A314" s="4" t="s">
         <v>7</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
         <v>7</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
         <v>7</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A361" s="4" t="s">
         <v>7</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A369" s="4" t="s">
         <v>7</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="s">
         <v>7</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>7</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>7</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A379" s="4" t="s">
         <v>7</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A381" s="4" t="s">
         <v>7</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>7</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>7</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>7</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A415" s="4" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>7</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14282,30 +14282,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>7</v>
-      </c>
-      <c r="B425">
+    <row r="425" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A425" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B425" s="6">
         <v>1359</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C425" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D425" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E425">
+      <c r="E425" s="6">
         <v>424</v>
       </c>
-      <c r="F425">
+      <c r="F425" s="6">
         <v>62</v>
       </c>
-      <c r="G425" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G425" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -14765,7 +14765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -14857,7 +14857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15110,7 +15110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -15409,7 +15409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -15547,7 +15547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -15823,7 +15823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>7</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -15869,7 +15869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>7</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>7</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>7</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -16835,7 +16835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>7</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>7</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>7</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>7</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>7</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>7</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>7</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="584" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>7</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="585" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>7</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="586" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>7</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="593" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>7</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="596" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>7</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="606" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>7</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="624" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>7</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>7</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>7</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>7</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>7</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="636" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>7</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>7</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>7</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>7</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="655" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>7</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="656" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -19940,7 +19940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>7</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>7</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="676" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>7</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="679" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>7</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -20377,7 +20377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="690" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>7</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="700" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>7</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="707" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>7</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>7</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="723" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>7</v>
       </c>
@@ -21182,7 +21182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="725" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>7</v>
       </c>
@@ -21274,7 +21274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="729" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>7</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="732" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>7</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="736" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>7</v>
       </c>
@@ -21458,7 +21458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="737" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>7</v>
       </c>
@@ -21481,7 +21481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -21550,7 +21550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="741" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>7</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -21711,7 +21711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -21803,7 +21803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="764" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>7</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="765" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>7</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -22286,7 +22286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22309,7 +22309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -22355,7 +22355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22378,7 +22378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="788" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>7</v>
       </c>
@@ -22700,7 +22700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="792" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>7</v>
       </c>
@@ -22769,7 +22769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -22815,7 +22815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -22953,7 +22953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -23068,7 +23068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -23091,7 +23091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -23160,7 +23160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="814" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>7</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="820" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>7</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -23436,7 +23436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="828" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>7</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -23620,7 +23620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -23758,7 +23758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -23804,7 +23804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="839" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>7</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -24011,7 +24011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -24057,7 +24057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -24172,7 +24172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -24218,7 +24218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="857" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>7</v>
       </c>
@@ -24287,7 +24287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -24310,7 +24310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="862" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>7</v>
       </c>
@@ -24379,7 +24379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -24402,7 +24402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -24471,7 +24471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="868" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>7</v>
       </c>
@@ -24494,7 +24494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -24517,7 +24517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="870" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>7</v>
       </c>
@@ -24540,7 +24540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -24678,7 +24678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -24724,7 +24724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -24747,7 +24747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -24816,7 +24816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="892" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>7</v>
       </c>
@@ -25046,7 +25046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -25092,7 +25092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>7</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="898" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>7</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="900" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>7</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="906" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>7</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="907" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>7</v>
       </c>
@@ -25414,7 +25414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="909" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>7</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>7</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>7</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>7</v>
       </c>
@@ -25506,7 +25506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="913" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>7</v>
       </c>
@@ -25529,7 +25529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>7</v>
       </c>
@@ -25621,7 +25621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>7</v>
       </c>
@@ -25644,7 +25644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25713,7 +25713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>7</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>7</v>
       </c>
@@ -25805,7 +25805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>7</v>
       </c>
@@ -25874,7 +25874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -25897,7 +25897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>7</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>7</v>
       </c>
@@ -26058,7 +26058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>7</v>
       </c>
@@ -26081,7 +26081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>7</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>7</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>7</v>
       </c>
@@ -26242,7 +26242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>7</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>7</v>
       </c>
@@ -26311,7 +26311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -26334,7 +26334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="949" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>7</v>
       </c>
@@ -26357,7 +26357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="950" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>7</v>
       </c>
@@ -26380,7 +26380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>7</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="957" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>7</v>
       </c>
@@ -26541,7 +26541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>7</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -26633,7 +26633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -26679,7 +26679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="964" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>7</v>
       </c>
@@ -26702,7 +26702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="965" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>7</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>7</v>
       </c>
@@ -26840,7 +26840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="971" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>7</v>
       </c>
@@ -26886,7 +26886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="973" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>7</v>
       </c>
@@ -26909,7 +26909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="974" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>7</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -26955,7 +26955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="976" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>7</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="978" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>7</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>7</v>
       </c>
@@ -27070,7 +27070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>7</v>
       </c>
@@ -27162,7 +27162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -27185,7 +27185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -27208,7 +27208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -27254,7 +27254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>7</v>
       </c>
@@ -27277,7 +27277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>7</v>
       </c>
@@ -27323,7 +27323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -27369,7 +27369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>7</v>
       </c>
@@ -27438,7 +27438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>7</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -27507,7 +27507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>7</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>7</v>
       </c>
@@ -27576,7 +27576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>7</v>
       </c>
@@ -27599,7 +27599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>7</v>
       </c>
@@ -27645,7 +27645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>7</v>
       </c>
@@ -27714,7 +27714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1009" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>7</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -27760,7 +27760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>7</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>7</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>7</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>7</v>
       </c>
@@ -27875,7 +27875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>7</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>7</v>
       </c>
@@ -27967,7 +27967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>7</v>
       </c>
@@ -27990,7 +27990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>7</v>
       </c>
@@ -28082,7 +28082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>7</v>
       </c>
@@ -28105,7 +28105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>7</v>
       </c>
@@ -28128,7 +28128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>7</v>
       </c>
@@ -28151,7 +28151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>7</v>
       </c>
@@ -28174,7 +28174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>7</v>
       </c>
@@ -28197,7 +28197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>7</v>
       </c>
@@ -28220,7 +28220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>7</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>7</v>
       </c>
@@ -28289,7 +28289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -28335,7 +28335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>7</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>7</v>
       </c>
@@ -28381,7 +28381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>7</v>
       </c>
@@ -28404,7 +28404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>7</v>
       </c>
@@ -28450,7 +28450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>7</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>7</v>
       </c>
@@ -28519,7 +28519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>7</v>
       </c>
@@ -28542,7 +28542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>7</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -28611,7 +28611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>7</v>
       </c>
@@ -28634,7 +28634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>7</v>
       </c>
@@ -28657,7 +28657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>7</v>
       </c>
@@ -28726,7 +28726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>7</v>
       </c>
@@ -28749,7 +28749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>7</v>
       </c>
@@ -28772,7 +28772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>7</v>
       </c>
@@ -28795,7 +28795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>7</v>
       </c>
@@ -28864,7 +28864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>7</v>
       </c>
@@ -28910,7 +28910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>7</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>7</v>
       </c>
@@ -28979,7 +28979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>7</v>
       </c>
@@ -29002,7 +29002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>7</v>
       </c>
@@ -29025,7 +29025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>7</v>
       </c>
@@ -29048,7 +29048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>7</v>
       </c>
@@ -29094,7 +29094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1069" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>7</v>
       </c>
@@ -29117,7 +29117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>7</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>7</v>
       </c>
@@ -29232,7 +29232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1075" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
         <v>7</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>7</v>
       </c>
@@ -29370,7 +29370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>7</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -29462,7 +29462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>7</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>7</v>
       </c>
@@ -29577,7 +29577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>7</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29715,7 +29715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1096" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1096" t="s">
         <v>7</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1099" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
         <v>7</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>7</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29853,7 +29853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>7</v>
       </c>
@@ -29899,7 +29899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>7</v>
       </c>
@@ -29922,7 +29922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1105" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1105" t="s">
         <v>7</v>
       </c>
@@ -29945,7 +29945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>7</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
         <v>7</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>7</v>
       </c>
@@ -30083,7 +30083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>7</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>7</v>
       </c>
@@ -30152,7 +30152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30198,7 +30198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>7</v>
       </c>
@@ -30221,7 +30221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -30244,7 +30244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1119" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1119" t="s">
         <v>7</v>
       </c>
@@ -30267,7 +30267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1120" t="s">
         <v>7</v>
       </c>
@@ -30336,7 +30336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1123" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
         <v>7</v>
       </c>
@@ -30359,7 +30359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1124" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1124" t="s">
         <v>7</v>
       </c>
@@ -30405,7 +30405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1126" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1126" t="s">
         <v>7</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>7</v>
       </c>
@@ -30451,7 +30451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1128" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1128" t="s">
         <v>7</v>
       </c>
@@ -30520,7 +30520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>7</v>
       </c>
@@ -30543,7 +30543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>7</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>7</v>
       </c>
@@ -30658,7 +30658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>7</v>
       </c>
@@ -30704,7 +30704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>7</v>
       </c>
@@ -30727,7 +30727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>7</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>7</v>
       </c>
@@ -30796,7 +30796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>7</v>
       </c>
@@ -30819,7 +30819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>7</v>
       </c>
@@ -30842,7 +30842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
         <v>7</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>7</v>
       </c>
@@ -30888,7 +30888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>7</v>
       </c>
@@ -30911,7 +30911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
         <v>7</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1149" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
         <v>7</v>
       </c>
@@ -30957,7 +30957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>7</v>
       </c>
@@ -31003,7 +31003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>7</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1153" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
         <v>7</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
         <v>7</v>
       </c>
@@ -31118,7 +31118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>7</v>
       </c>
@@ -31164,7 +31164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>7</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1163" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>7</v>
       </c>
@@ -31302,7 +31302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>7</v>
       </c>
@@ -31371,7 +31371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>7</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>7</v>
       </c>
@@ -31417,7 +31417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>7</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>7</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>7</v>
       </c>
@@ -31532,7 +31532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>7</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>7</v>
       </c>
@@ -31624,7 +31624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31670,7 +31670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31693,7 +31693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31762,7 +31762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -31789,7 +31789,7 @@
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="MacKenzie Cited_2016:2021"/>
+        <filter val="MacKenzie Cited_2006:2010"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F884F-9A97-FB4C-A9FA-A3671CBE1F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655F049-4BBA-F24B-8FC0-EA5AC4A55A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4516,12 +4516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I420" sqref="I420"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4576,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5427,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5542,30 +5541,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
         <v>1183</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="1">
         <v>44</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>15</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -6048,7 +6047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6830,7 +6829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -8003,7 +8002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8141,7 +8140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8187,7 +8186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8210,7 +8209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8762,7 +8761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9383,7 +9382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9521,7 +9520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9682,7 +9681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9728,7 +9727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +9911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +10049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -10372,7 +10371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -10625,7 +10624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -10832,7 +10831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -10947,7 +10946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -10970,7 +10969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -11108,7 +11107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -11591,7 +11590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -11936,7 +11935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -11959,7 +11958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12097,7 +12096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -12143,7 +12142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -12189,7 +12188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -12258,7 +12257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -12281,7 +12280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -12350,7 +12349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -12557,7 +12556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -12672,7 +12671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12695,7 +12694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -12741,7 +12740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -12787,7 +12786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -12879,7 +12878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -12948,7 +12947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -13040,7 +13039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13362,7 +13361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -13408,7 +13407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -13431,7 +13430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -13477,7 +13476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -13523,7 +13522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -13569,7 +13568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13592,7 +13591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -13799,7 +13798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13822,7 +13821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -13868,7 +13867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -13914,7 +13913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -13937,7 +13936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -13960,7 +13959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -13983,7 +13982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14006,7 +14005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -14213,7 +14212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14236,7 +14235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14259,7 +14258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14305,7 +14304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14351,7 +14350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -14535,7 +14534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -14558,7 +14557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -14650,7 +14649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -14673,7 +14672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -14696,7 +14695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -14811,7 +14810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -14926,7 +14925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -14972,7 +14971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15018,7 +15017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15041,7 +15040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15133,7 +15132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -15179,7 +15178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -15225,7 +15224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -15248,7 +15247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -15294,7 +15293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -15317,7 +15316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -15340,7 +15339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -15386,7 +15385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -15409,7 +15408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -15432,7 +15431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -15455,7 +15454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -15524,7 +15523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -15547,7 +15546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -15570,7 +15569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -15616,7 +15615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -15662,7 +15661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -15708,7 +15707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -15731,7 +15730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -15777,7 +15776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -15800,7 +15799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -15938,7 +15937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -15961,7 +15960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -16237,7 +16236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -16260,7 +16259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -16283,7 +16282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -16352,7 +16351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -16398,7 +16397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -16421,7 +16420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -16467,7 +16466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -16490,7 +16489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -16513,7 +16512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -16536,7 +16535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -16559,7 +16558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -16582,7 +16581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -16605,7 +16604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -16628,7 +16627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -16651,7 +16650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -16743,7 +16742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -16789,7 +16788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -16812,7 +16811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -16835,7 +16834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -16858,7 +16857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -16881,7 +16880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -16904,7 +16903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -16927,7 +16926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -16950,7 +16949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -16996,7 +16995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -17019,7 +17018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -17042,7 +17041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -17065,7 +17064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -17180,7 +17179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -17249,7 +17248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -17387,7 +17386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -17433,7 +17432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -17502,7 +17501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -17525,7 +17524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -17548,7 +17547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -17571,7 +17570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -17594,7 +17593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -17640,7 +17639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -17709,7 +17708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -17755,7 +17754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -17778,7 +17777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -17824,7 +17823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -17847,7 +17846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -17893,7 +17892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -18008,7 +18007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -18031,7 +18030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -18100,7 +18099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -18123,7 +18122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -18192,7 +18191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -18238,7 +18237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -18261,7 +18260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18307,7 +18306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18330,7 +18329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18353,7 +18352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18376,7 +18375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -18422,7 +18421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18468,7 +18467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18491,7 +18490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18537,7 +18536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18560,7 +18559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18583,7 +18582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -18606,7 +18605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -18629,7 +18628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -18652,7 +18651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -18698,7 +18697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -18721,7 +18720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -18744,7 +18743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -18767,7 +18766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -18836,7 +18835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -18928,7 +18927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -18951,7 +18950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -19020,7 +19019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -19043,7 +19042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -19066,7 +19065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -19181,7 +19180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -19204,7 +19203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -19227,7 +19226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -19342,7 +19341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -19365,7 +19364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>7</v>
       </c>
@@ -19388,7 +19387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>7</v>
       </c>
@@ -19411,7 +19410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -19434,7 +19433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -19480,7 +19479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19503,7 +19502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>7</v>
       </c>
@@ -19549,7 +19548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -19618,7 +19617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -19641,7 +19640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -19664,7 +19663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -19687,7 +19686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -19710,7 +19709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -19733,7 +19732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -19756,7 +19755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -19779,7 +19778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -19802,7 +19801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -19825,7 +19824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -19848,7 +19847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -19871,7 +19870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -19894,7 +19893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>7</v>
       </c>
@@ -19917,7 +19916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -19963,7 +19962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -19986,7 +19985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -20078,7 +20077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -20101,7 +20100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -20147,7 +20146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -20170,7 +20169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -20216,7 +20215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>7</v>
       </c>
@@ -20239,7 +20238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -20262,7 +20261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -20285,7 +20284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -20308,7 +20307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -20423,7 +20422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -20446,7 +20445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -20492,7 +20491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -20515,7 +20514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -20538,7 +20537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -20561,7 +20560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -20584,7 +20583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -20630,7 +20629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>7</v>
       </c>
@@ -20653,7 +20652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -20699,7 +20698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>7</v>
       </c>
@@ -20722,7 +20721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -20745,7 +20744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -20791,7 +20790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -20860,7 +20859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -20883,7 +20882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -20906,7 +20905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -20929,7 +20928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -20952,7 +20951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -20998,7 +20997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>7</v>
       </c>
@@ -21021,7 +21020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -21044,7 +21043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21067,7 +21066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -21090,7 +21089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -21113,7 +21112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -21159,7 +21158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -21205,7 +21204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>7</v>
       </c>
@@ -21228,7 +21227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -21251,7 +21250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -21320,7 +21319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -21366,7 +21365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>7</v>
       </c>
@@ -21389,7 +21388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -21412,7 +21411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -21481,7 +21480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -21504,7 +21503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -21527,7 +21526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -21573,7 +21572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -21596,7 +21595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -21619,7 +21618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -21642,7 +21641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -21688,7 +21687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -21711,7 +21710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21734,7 +21733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -21757,7 +21756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -21780,7 +21779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -21803,7 +21802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -21826,7 +21825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -21849,7 +21848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -21872,7 +21871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -21895,7 +21894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -21918,7 +21917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>7</v>
       </c>
@@ -21941,7 +21940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -21964,7 +21963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -21987,7 +21986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -22010,7 +22009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -22033,7 +22032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -22056,7 +22055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -22125,7 +22124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A766" s="4" t="s">
         <v>7</v>
       </c>
@@ -22148,7 +22147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -22171,7 +22170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -22194,7 +22193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -22217,7 +22216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -22240,7 +22239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -22263,7 +22262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -22286,7 +22285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22309,7 +22308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -22332,7 +22331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -22355,7 +22354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22378,7 +22377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -22401,7 +22400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -22424,7 +22423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22447,7 +22446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -22470,7 +22469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -22493,7 +22492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -22516,7 +22515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -22539,7 +22538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -22562,7 +22561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22585,7 +22584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -22608,7 +22607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -22654,7 +22653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>7</v>
       </c>
@@ -22677,7 +22676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -22700,7 +22699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -22746,7 +22745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
         <v>7</v>
       </c>
@@ -22769,7 +22768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -22792,7 +22791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -22815,7 +22814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -22838,7 +22837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>7</v>
       </c>
@@ -22861,7 +22860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A798" s="4" t="s">
         <v>7</v>
       </c>
@@ -22884,7 +22883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -22907,7 +22906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -22930,7 +22929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -22953,7 +22952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -22976,7 +22975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -22999,7 +22998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -23022,7 +23021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>7</v>
       </c>
@@ -23045,7 +23044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>7</v>
       </c>
@@ -23068,7 +23067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -23091,7 +23090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -23114,7 +23113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -23137,7 +23136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -23160,7 +23159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -23183,7 +23182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -23206,7 +23205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>7</v>
       </c>
@@ -23252,7 +23251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -23275,7 +23274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -23298,7 +23297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -23321,7 +23320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -23344,7 +23343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>7</v>
       </c>
@@ -23390,7 +23389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -23413,7 +23412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -23436,7 +23435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -23459,7 +23458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -23482,7 +23481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -23505,7 +23504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A826" s="4" t="s">
         <v>7</v>
       </c>
@@ -23528,7 +23527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -23574,7 +23573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -23597,7 +23596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>7</v>
       </c>
@@ -23620,7 +23619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -23643,7 +23642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -23666,7 +23665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -23689,7 +23688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -23712,7 +23711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -23735,7 +23734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -23758,7 +23757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -23781,7 +23780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -23827,7 +23826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -23850,7 +23849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -23873,7 +23872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -23896,7 +23895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -23919,7 +23918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -23942,7 +23941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -23965,7 +23964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -23988,7 +23987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -24011,7 +24010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -24034,7 +24033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -24057,7 +24056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -24080,7 +24079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -24103,7 +24102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>7</v>
       </c>
@@ -24126,7 +24125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A853" s="4" t="s">
         <v>7</v>
       </c>
@@ -24149,7 +24148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -24172,7 +24171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -24195,7 +24194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -24241,7 +24240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>7</v>
       </c>
@@ -24264,7 +24263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A859" s="4" t="s">
         <v>7</v>
       </c>
@@ -24287,7 +24286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -24310,7 +24309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -24356,7 +24355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24379,7 +24378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -24402,7 +24401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24425,7 +24424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -24448,7 +24447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -24494,7 +24493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -24540,7 +24539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -24563,7 +24562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -24586,7 +24585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -24609,7 +24608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -24632,7 +24631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -24655,7 +24654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -24678,7 +24677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -24701,7 +24700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -24724,7 +24723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -24747,7 +24746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -24770,7 +24769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>7</v>
       </c>
@@ -24793,7 +24792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
         <v>7</v>
       </c>
@@ -24816,7 +24815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -24839,7 +24838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -24862,7 +24861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>7</v>
       </c>
@@ -24885,7 +24884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>7</v>
       </c>
@@ -24908,7 +24907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -24931,7 +24930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -24954,7 +24953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -24977,7 +24976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -25000,7 +24999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -25046,7 +25045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -25069,7 +25068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -25092,7 +25091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>7</v>
       </c>
@@ -25138,7 +25137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -25184,7 +25183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>7</v>
       </c>
@@ -25230,7 +25229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>7</v>
       </c>
@@ -25253,7 +25252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -25276,7 +25275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -25299,7 +25298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -25322,7 +25321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -25391,7 +25390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>7</v>
       </c>
@@ -25437,7 +25436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>7</v>
       </c>
@@ -25460,7 +25459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>7</v>
       </c>
@@ -25483,7 +25482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>7</v>
       </c>
@@ -25529,7 +25528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -25552,7 +25551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>7</v>
       </c>
@@ -25575,7 +25574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -25598,7 +25597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -25621,7 +25620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>7</v>
       </c>
@@ -25644,7 +25643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -25667,7 +25666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>7</v>
       </c>
@@ -25690,7 +25689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25713,7 +25712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>7</v>
       </c>
@@ -25736,7 +25735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -25759,7 +25758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>7</v>
       </c>
@@ -25782,7 +25781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>7</v>
       </c>
@@ -25805,7 +25804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -25828,7 +25827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>7</v>
       </c>
@@ -25851,7 +25850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>7</v>
       </c>
@@ -25874,7 +25873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -25897,7 +25896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>7</v>
       </c>
@@ -25920,7 +25919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>7</v>
       </c>
@@ -25943,7 +25942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>7</v>
       </c>
@@ -25966,7 +25965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>7</v>
       </c>
@@ -25989,7 +25988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>7</v>
       </c>
@@ -26012,7 +26011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>7</v>
       </c>
@@ -26035,7 +26034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>7</v>
       </c>
@@ -26058,7 +26057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>7</v>
       </c>
@@ -26081,7 +26080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26104,7 +26103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>7</v>
       </c>
@@ -26127,7 +26126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>7</v>
       </c>
@@ -26150,7 +26149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>7</v>
       </c>
@@ -26173,7 +26172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>7</v>
       </c>
@@ -26196,7 +26195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>7</v>
       </c>
@@ -26219,7 +26218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>7</v>
       </c>
@@ -26242,7 +26241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>7</v>
       </c>
@@ -26265,7 +26264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>7</v>
       </c>
@@ -26288,7 +26287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>7</v>
       </c>
@@ -26311,7 +26310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -26380,7 +26379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>7</v>
       </c>
@@ -26403,7 +26402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>7</v>
       </c>
@@ -26426,7 +26425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -26449,7 +26448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -26472,7 +26471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>7</v>
       </c>
@@ -26495,7 +26494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>7</v>
       </c>
@@ -26541,7 +26540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>7</v>
       </c>
@@ -26564,7 +26563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -26587,7 +26586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>7</v>
       </c>
@@ -26610,7 +26609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -26633,7 +26632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -26656,7 +26655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>7</v>
       </c>
@@ -26725,7 +26724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -26748,7 +26747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>7</v>
       </c>
@@ -26771,7 +26770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>7</v>
       </c>
@@ -26794,7 +26793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26817,7 +26816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>7</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>7</v>
       </c>
@@ -26932,7 +26931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -26978,7 +26977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -27024,7 +27023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>7</v>
       </c>
@@ -27047,7 +27046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>7</v>
       </c>
@@ -27070,7 +27069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>7</v>
       </c>
@@ -27093,7 +27092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>7</v>
       </c>
@@ -27116,7 +27115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>7</v>
       </c>
@@ -27139,7 +27138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>7</v>
       </c>
@@ -27162,7 +27161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -27185,7 +27184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -27208,7 +27207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27231,7 +27230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -27254,7 +27253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>7</v>
       </c>
@@ -27300,7 +27299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27323,7 +27322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -27346,7 +27345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -27369,7 +27368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>7</v>
       </c>
@@ -27392,7 +27391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>7</v>
       </c>
@@ -27415,7 +27414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>7</v>
       </c>
@@ -27438,7 +27437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>7</v>
       </c>
@@ -27461,7 +27460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -27484,7 +27483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>7</v>
       </c>
@@ -27507,7 +27506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>7</v>
       </c>
@@ -27530,7 +27529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>7</v>
       </c>
@@ -27553,7 +27552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>7</v>
       </c>
@@ -27576,7 +27575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>7</v>
       </c>
@@ -27599,7 +27598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>7</v>
       </c>
@@ -27622,7 +27621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>7</v>
       </c>
@@ -27668,7 +27667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>7</v>
       </c>
@@ -27691,7 +27690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>7</v>
       </c>
@@ -27737,7 +27736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -27760,7 +27759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>7</v>
       </c>
@@ -27783,7 +27782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>7</v>
       </c>
@@ -27806,7 +27805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>7</v>
       </c>
@@ -27829,7 +27828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>7</v>
       </c>
@@ -27852,7 +27851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>7</v>
       </c>
@@ -27875,7 +27874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>7</v>
       </c>
@@ -27898,7 +27897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>7</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>7</v>
       </c>
@@ -27944,7 +27943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>7</v>
       </c>
@@ -27967,7 +27966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>7</v>
       </c>
@@ -27990,7 +27989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>7</v>
       </c>
@@ -28013,7 +28012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -28036,7 +28035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -28059,7 +28058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>7</v>
       </c>
@@ -28082,7 +28081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>7</v>
       </c>
@@ -28105,7 +28104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>7</v>
       </c>
@@ -28128,7 +28127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>7</v>
       </c>
@@ -28151,7 +28150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>7</v>
       </c>
@@ -28174,7 +28173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>7</v>
       </c>
@@ -28197,7 +28196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>7</v>
       </c>
@@ -28220,7 +28219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>7</v>
       </c>
@@ -28243,7 +28242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>7</v>
       </c>
@@ -28266,7 +28265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>7</v>
       </c>
@@ -28289,7 +28288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -28312,7 +28311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>7</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>7</v>
       </c>
@@ -28427,7 +28426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>7</v>
       </c>
@@ -28473,7 +28472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>7</v>
       </c>
@@ -28496,7 +28495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>7</v>
       </c>
@@ -28519,7 +28518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>7</v>
       </c>
@@ -28565,7 +28564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -28588,7 +28587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>7</v>
       </c>
@@ -28611,7 +28610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>7</v>
       </c>
@@ -28634,7 +28633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>7</v>
       </c>
@@ -28680,7 +28679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>7</v>
       </c>
@@ -28703,7 +28702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>7</v>
       </c>
@@ -28726,7 +28725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>7</v>
       </c>
@@ -28772,7 +28771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>7</v>
       </c>
@@ -28795,7 +28794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>7</v>
       </c>
@@ -28818,7 +28817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>7</v>
       </c>
@@ -28841,7 +28840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>7</v>
       </c>
@@ -28864,7 +28863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>7</v>
       </c>
@@ -28887,7 +28886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>7</v>
       </c>
@@ -28910,7 +28909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>7</v>
       </c>
@@ -28933,7 +28932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>7</v>
       </c>
@@ -28956,7 +28955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>7</v>
       </c>
@@ -29025,7 +29024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>7</v>
       </c>
@@ -29048,7 +29047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>7</v>
       </c>
@@ -29071,7 +29070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>7</v>
       </c>
@@ -29140,7 +29139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>7</v>
       </c>
@@ -29163,7 +29162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>7</v>
       </c>
@@ -29186,7 +29185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>7</v>
       </c>
@@ -29209,7 +29208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>7</v>
       </c>
@@ -29255,7 +29254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>7</v>
       </c>
@@ -29278,7 +29277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>7</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>7</v>
       </c>
@@ -29324,7 +29323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>7</v>
       </c>
@@ -29347,7 +29346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29393,7 +29392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -29416,7 +29415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>7</v>
       </c>
@@ -29439,7 +29438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>7</v>
       </c>
@@ -29462,7 +29461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>7</v>
       </c>
@@ -29485,7 +29484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>7</v>
       </c>
@@ -29508,7 +29507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>7</v>
       </c>
@@ -29531,7 +29530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>7</v>
       </c>
@@ -29554,7 +29553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>7</v>
       </c>
@@ -29577,7 +29576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>7</v>
       </c>
@@ -29600,7 +29599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>7</v>
       </c>
@@ -29623,7 +29622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1092" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>7</v>
       </c>
@@ -29646,7 +29645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>7</v>
       </c>
@@ -29669,7 +29668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29692,7 +29691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>7</v>
       </c>
@@ -29738,7 +29737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>7</v>
       </c>
@@ -29761,7 +29760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>7</v>
       </c>
@@ -29807,7 +29806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>7</v>
       </c>
@@ -29830,7 +29829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29853,7 +29852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>7</v>
       </c>
@@ -29876,7 +29875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>7</v>
       </c>
@@ -29899,7 +29898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>7</v>
       </c>
@@ -29945,7 +29944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -29968,7 +29967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>7</v>
       </c>
@@ -29991,7 +29990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30037,7 +30036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>7</v>
       </c>
@@ -30060,7 +30059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>7</v>
       </c>
@@ -30083,7 +30082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>7</v>
       </c>
@@ -30106,7 +30105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>7</v>
       </c>
@@ -30129,7 +30128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>7</v>
       </c>
@@ -30152,7 +30151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30175,7 +30174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>7</v>
       </c>
@@ -30198,7 +30197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>7</v>
       </c>
@@ -30221,7 +30220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -30290,7 +30289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>7</v>
       </c>
@@ -30313,7 +30312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>7</v>
       </c>
@@ -30382,7 +30381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>7</v>
       </c>
@@ -30428,7 +30427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>7</v>
       </c>
@@ -30474,7 +30473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>7</v>
       </c>
@@ -30497,7 +30496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -30520,7 +30519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>7</v>
       </c>
@@ -30543,7 +30542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>7</v>
       </c>
@@ -30566,7 +30565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>7</v>
       </c>
@@ -30589,7 +30588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>7</v>
       </c>
@@ -30612,7 +30611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>7</v>
       </c>
@@ -30635,7 +30634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>7</v>
       </c>
@@ -30658,7 +30657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>7</v>
       </c>
@@ -30681,7 +30680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>7</v>
       </c>
@@ -30704,7 +30703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>7</v>
       </c>
@@ -30727,7 +30726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>7</v>
       </c>
@@ -30750,7 +30749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>7</v>
       </c>
@@ -30773,7 +30772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>7</v>
       </c>
@@ -30796,7 +30795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>7</v>
       </c>
@@ -30819,7 +30818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>7</v>
       </c>
@@ -30865,7 +30864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>7</v>
       </c>
@@ -30888,7 +30887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>7</v>
       </c>
@@ -30957,7 +30956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>7</v>
       </c>
@@ -30980,7 +30979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>7</v>
       </c>
@@ -31003,7 +31002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>7</v>
       </c>
@@ -31049,7 +31048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -31095,7 +31094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>7</v>
       </c>
@@ -31118,7 +31117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>7</v>
       </c>
@@ -31141,7 +31140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>7</v>
       </c>
@@ -31164,7 +31163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>7</v>
       </c>
@@ -31187,7 +31186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>7</v>
       </c>
@@ -31210,7 +31209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>7</v>
       </c>
@@ -31233,7 +31232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>7</v>
       </c>
@@ -31279,7 +31278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>7</v>
       </c>
@@ -31302,7 +31301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>7</v>
       </c>
@@ -31325,7 +31324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>7</v>
       </c>
@@ -31348,7 +31347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>7</v>
       </c>
@@ -31371,7 +31370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>7</v>
       </c>
@@ -31394,7 +31393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>7</v>
       </c>
@@ -31417,7 +31416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>7</v>
       </c>
@@ -31440,7 +31439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>7</v>
       </c>
@@ -31486,7 +31485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>7</v>
       </c>
@@ -31509,7 +31508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>7</v>
       </c>
@@ -31532,7 +31531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>7</v>
       </c>
@@ -31555,7 +31554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>7</v>
       </c>
@@ -31578,7 +31577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>7</v>
       </c>
@@ -31601,7 +31600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>7</v>
       </c>
@@ -31624,7 +31623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31647,7 +31646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31670,7 +31669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31693,7 +31692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31716,7 +31715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31739,7 +31738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31762,7 +31761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -31787,11 +31786,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MacKenzie Cited_2006:2010"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">
       <sortCondition ref="E1:E1185"/>
     </sortState>

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655F049-4BBA-F24B-8FC0-EA5AC4A55A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3476C4E2-EF8D-3B4C-8827-1A8D26C655F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4516,11 +4516,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L44" sqref="L44"/>
+      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E477" sqref="E477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4575,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5611,29 +5612,29 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4">
         <v>1385</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <v>47</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="4">
         <v>9</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -6231,7 +6232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6852,7 +6853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -8922,7 +8923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -9014,7 +9015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9198,7 +9199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9589,7 +9590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -9612,7 +9613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9980,7 +9981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -10095,7 +10096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="170" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -10187,7 +10188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -10210,7 +10211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -10302,7 +10303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -10325,7 +10326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10348,7 +10349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -10463,7 +10464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -10532,7 +10533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -10601,7 +10602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -10693,7 +10694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -10854,7 +10855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -10900,7 +10901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -10923,7 +10924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -10946,7 +10947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -10969,7 +10970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -11061,7 +11062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -11107,7 +11108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -11130,7 +11131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -11176,7 +11177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11199,7 +11200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -11268,7 +11269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -11360,7 +11361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11383,7 +11384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -11452,7 +11453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -11498,7 +11499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -11521,7 +11522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -11544,7 +11545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -11567,7 +11568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11636,7 +11637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -11659,7 +11660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -11682,7 +11683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -11751,7 +11752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -11935,7 +11936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -11981,7 +11982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -12073,7 +12074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -12119,7 +12120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -12165,7 +12166,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -12234,7 +12235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -12303,7 +12304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -12326,7 +12327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -12372,7 +12373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -12395,7 +12396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -12441,7 +12442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -12556,7 +12557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12579,7 +12580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -12625,7 +12626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -12648,7 +12649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -12671,7 +12672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12694,7 +12695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -12786,7 +12787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -12832,7 +12833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -12855,7 +12856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -12878,7 +12879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -12901,7 +12902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -12924,7 +12925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -12947,7 +12948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -12970,7 +12971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -13039,7 +13040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -13085,7 +13086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -13131,7 +13132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -13200,7 +13201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -13246,7 +13247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -13315,7 +13316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -13407,7 +13408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -13430,7 +13431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -13453,7 +13454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -13476,7 +13477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -13522,7 +13523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -13545,7 +13546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13591,7 +13592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13637,7 +13638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13683,7 +13684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13706,7 +13707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -13729,7 +13730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -13775,7 +13776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -13798,7 +13799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13821,7 +13822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -13844,7 +13845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -13867,7 +13868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -13890,7 +13891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -13959,7 +13960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -13982,7 +13983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14074,7 +14075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14120,7 +14121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -14189,7 +14190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -14212,7 +14213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14235,7 +14236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14350,7 +14351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14396,7 +14397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14465,7 +14466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14488,7 +14489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -14512,29 +14513,29 @@
       </c>
     </row>
     <row r="435" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>7</v>
-      </c>
-      <c r="B435">
+      <c r="A435" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B435" s="4">
         <v>1382</v>
       </c>
-      <c r="C435" s="2" t="s">
+      <c r="C435" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D435" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E435">
+      <c r="E435" s="4">
         <v>434</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="4">
         <v>63</v>
       </c>
-      <c r="G435" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="G435" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -14557,7 +14558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -14580,7 +14581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -14603,7 +14604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -14626,7 +14627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -14649,7 +14650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -14695,7 +14696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14718,7 +14719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -14741,7 +14742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14764,7 +14765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14787,7 +14788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -14833,7 +14834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -14856,7 +14857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14879,7 +14880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -14902,7 +14903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -14949,29 +14950,29 @@
       </c>
     </row>
     <row r="454" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>7</v>
-      </c>
-      <c r="B454">
+      <c r="A454" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" s="6">
         <v>1286</v>
       </c>
-      <c r="C454" s="2" t="s">
+      <c r="C454" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D454" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E454">
+      <c r="E454" s="6">
         <v>453</v>
       </c>
-      <c r="F454">
+      <c r="F454" s="6">
         <v>64</v>
       </c>
-      <c r="G454" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="G454" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -14994,7 +14995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15017,7 +15018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15040,7 +15041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15063,7 +15064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15086,7 +15087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15109,7 +15110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15132,7 +15133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -15178,7 +15179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -15224,7 +15225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -15247,7 +15248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -15270,7 +15271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -15293,7 +15294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -15316,7 +15317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -15385,7 +15386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -15431,7 +15432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -15454,7 +15455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -15523,7 +15524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -15569,7 +15570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -15592,7 +15593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -15615,7 +15616,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -15638,7 +15639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -15661,7 +15662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -15684,7 +15685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -15730,7 +15731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -15753,7 +15754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -15776,7 +15777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -15799,7 +15800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -15845,7 +15846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -15914,7 +15915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -15937,7 +15938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -15960,7 +15961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -16006,7 +16007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -16052,7 +16053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -16075,7 +16076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -16098,7 +16099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -16167,7 +16168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -16190,7 +16191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -16213,7 +16214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -16236,7 +16237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -16259,7 +16260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -16282,7 +16283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -16305,7 +16306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -16328,7 +16329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -16351,7 +16352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -16374,7 +16375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -16397,7 +16398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -16420,7 +16421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -16443,7 +16444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -16466,7 +16467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -16489,7 +16490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -16558,7 +16559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -16581,7 +16582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -16604,7 +16605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -16650,7 +16651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -16673,7 +16674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -16696,7 +16697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -16765,7 +16766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -16788,7 +16789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -16834,7 +16835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -16857,7 +16858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -16880,7 +16881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -16903,7 +16904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -16926,7 +16927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -16949,7 +16950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -16972,7 +16973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -16995,7 +16996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -17018,7 +17019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -17041,7 +17042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -17064,7 +17065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -17087,7 +17088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -17133,7 +17134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -17179,7 +17180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -17202,7 +17203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -17248,7 +17249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -17294,7 +17295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -17317,7 +17318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -17363,7 +17364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -17432,7 +17433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -17455,7 +17456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -17501,7 +17502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -17524,7 +17525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -17570,7 +17571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -17593,7 +17594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -17639,7 +17640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -17708,7 +17709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -17731,7 +17732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -17754,7 +17755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -17777,7 +17778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -17800,7 +17801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -17823,7 +17824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -17846,7 +17847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -17892,7 +17893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -17915,7 +17916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -18030,7 +18031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -18053,7 +18054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -18099,7 +18100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -18122,7 +18123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -18168,7 +18169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -18191,7 +18192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -18237,7 +18238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -18260,7 +18261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18283,7 +18284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18329,7 +18330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18375,7 +18376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18398,7 +18399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -18421,7 +18422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18467,7 +18468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18490,7 +18491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18513,7 +18514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18559,7 +18560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18582,7 +18583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -18628,7 +18629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -18651,7 +18652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -18697,7 +18698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -18720,7 +18721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -18743,7 +18744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -18766,7 +18767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -18789,7 +18790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -18812,7 +18813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -18835,7 +18836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -18927,7 +18928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -18950,7 +18951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -18973,7 +18974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -19019,7 +19020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -19042,7 +19043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -19065,7 +19066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -19111,7 +19112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -19157,7 +19158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -19180,7 +19181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -19203,7 +19204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -19226,7 +19227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -19249,7 +19250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -19272,7 +19273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -19295,7 +19296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -19364,7 +19365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>7</v>
       </c>
@@ -19387,7 +19388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>7</v>
       </c>
@@ -19410,7 +19411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -19433,7 +19434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -19479,7 +19480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19502,7 +19503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>7</v>
       </c>
@@ -19548,7 +19549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -19617,7 +19618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -19640,7 +19641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -19663,7 +19664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -19686,7 +19687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -19709,7 +19710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -19732,7 +19733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -19755,7 +19756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -19778,7 +19779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -19801,7 +19802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -19824,7 +19825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -19847,7 +19848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -19870,7 +19871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -19893,7 +19894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>7</v>
       </c>
@@ -19916,7 +19917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -19962,7 +19963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -19985,7 +19986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -20008,7 +20009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -20077,7 +20078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -20100,7 +20101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -20146,7 +20147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -20169,7 +20170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -20215,7 +20216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>7</v>
       </c>
@@ -20238,7 +20239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -20284,7 +20285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -20307,7 +20308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -20330,7 +20331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -20353,7 +20354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -20422,7 +20423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -20445,7 +20446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -20468,7 +20469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -20491,7 +20492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -20514,7 +20515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -20537,7 +20538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -20560,7 +20561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -20629,7 +20630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>7</v>
       </c>
@@ -20652,7 +20653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -20675,7 +20676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>7</v>
       </c>
@@ -20721,7 +20722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -20744,7 +20745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -20790,7 +20791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -20836,7 +20837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -20859,7 +20860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -20882,7 +20883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -20905,7 +20906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -20928,7 +20929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -20951,7 +20952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -20997,7 +20998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>7</v>
       </c>
@@ -21020,7 +21021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -21043,7 +21044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21066,7 +21067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -21089,7 +21090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -21112,7 +21113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -21158,7 +21159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -21204,7 +21205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>7</v>
       </c>
@@ -21227,7 +21228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -21250,7 +21251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -21296,7 +21297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -21319,7 +21320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -21365,7 +21366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>7</v>
       </c>
@@ -21388,7 +21389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -21411,7 +21412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -21480,7 +21481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -21503,7 +21504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -21526,7 +21527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -21572,7 +21573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -21595,7 +21596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -21618,7 +21619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -21641,7 +21642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -21664,7 +21665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -21687,7 +21688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -21710,7 +21711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21733,7 +21734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -21756,7 +21757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -21779,7 +21780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -21802,7 +21803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -21825,7 +21826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -21848,7 +21849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -21871,7 +21872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -21894,7 +21895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -21917,7 +21918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>7</v>
       </c>
@@ -21940,7 +21941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -21963,7 +21964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -21986,7 +21987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -22009,7 +22010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -22032,7 +22033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -22055,7 +22056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -22124,7 +22125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="4" t="s">
         <v>7</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -22170,7 +22171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -22193,7 +22194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -22216,7 +22217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -22239,7 +22240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -22262,7 +22263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -22285,7 +22286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22308,7 +22309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -22331,7 +22332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -22354,7 +22355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22377,7 +22378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -22400,7 +22401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -22423,7 +22424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22446,7 +22447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -22469,7 +22470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -22492,7 +22493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -22515,7 +22516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -22538,7 +22539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -22561,7 +22562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22584,7 +22585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -22607,7 +22608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -22653,7 +22654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>7</v>
       </c>
@@ -22676,7 +22677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -22699,7 +22700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -22745,7 +22746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
         <v>7</v>
       </c>
@@ -22768,7 +22769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -22791,7 +22792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -22814,7 +22815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -22837,7 +22838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>7</v>
       </c>
@@ -22860,7 +22861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="4" t="s">
         <v>7</v>
       </c>
@@ -22883,7 +22884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -22906,7 +22907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -22929,7 +22930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -22952,7 +22953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -22975,7 +22976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -22998,7 +22999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -23021,7 +23022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>7</v>
       </c>
@@ -23044,7 +23045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>7</v>
       </c>
@@ -23067,7 +23068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -23090,7 +23091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -23113,7 +23114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -23136,7 +23137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -23159,7 +23160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -23205,7 +23206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>7</v>
       </c>
@@ -23251,7 +23252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -23274,7 +23275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -23297,7 +23298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -23320,7 +23321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -23343,7 +23344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>7</v>
       </c>
@@ -23389,7 +23390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -23412,7 +23413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -23435,7 +23436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -23458,7 +23459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -23481,7 +23482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -23504,7 +23505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="4" t="s">
         <v>7</v>
       </c>
@@ -23527,7 +23528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -23573,7 +23574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -23596,7 +23597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>7</v>
       </c>
@@ -23619,7 +23620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -23642,7 +23643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -23665,7 +23666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -23688,7 +23689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -23711,7 +23712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -23734,7 +23735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -23757,7 +23758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -23780,7 +23781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -23826,7 +23827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -23849,7 +23850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -23872,7 +23873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -23895,7 +23896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -23918,7 +23919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -23941,7 +23942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -23964,7 +23965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -23987,7 +23988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -24010,7 +24011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -24033,7 +24034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -24056,7 +24057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -24079,7 +24080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -24102,7 +24103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>7</v>
       </c>
@@ -24125,7 +24126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="4" t="s">
         <v>7</v>
       </c>
@@ -24148,7 +24149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -24171,7 +24172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -24194,7 +24195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -24240,7 +24241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>7</v>
       </c>
@@ -24263,7 +24264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="4" t="s">
         <v>7</v>
       </c>
@@ -24286,7 +24287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -24309,7 +24310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -24355,7 +24356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24378,7 +24379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -24401,7 +24402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24424,7 +24425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -24447,7 +24448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -24493,7 +24494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -24539,7 +24540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -24562,7 +24563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -24585,7 +24586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -24608,7 +24609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -24631,7 +24632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -24654,7 +24655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -24677,7 +24678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -24700,7 +24701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -24723,7 +24724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -24746,7 +24747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -24769,7 +24770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>7</v>
       </c>
@@ -24792,7 +24793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
         <v>7</v>
       </c>
@@ -24815,7 +24816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -24838,7 +24839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -24861,7 +24862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>7</v>
       </c>
@@ -24884,7 +24885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>7</v>
       </c>
@@ -24907,7 +24908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -24930,7 +24931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -24953,7 +24954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -24976,7 +24977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -24999,7 +25000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -25045,7 +25046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -25068,7 +25069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -25091,7 +25092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>7</v>
       </c>
@@ -25114,7 +25115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>7</v>
       </c>
@@ -25137,7 +25138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -25183,7 +25184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>7</v>
       </c>
@@ -25229,7 +25230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>7</v>
       </c>
@@ -25252,7 +25253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -25275,7 +25276,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -25298,7 +25299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -25321,7 +25322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -25390,7 +25391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>7</v>
       </c>
@@ -25436,7 +25437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>7</v>
       </c>
@@ -25459,7 +25460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>7</v>
       </c>
@@ -25482,7 +25483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>7</v>
       </c>
@@ -25528,7 +25529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -25551,7 +25552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>7</v>
       </c>
@@ -25574,7 +25575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -25597,7 +25598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -25620,7 +25621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>7</v>
       </c>
@@ -25643,7 +25644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -25666,7 +25667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>7</v>
       </c>
@@ -25689,7 +25690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25712,7 +25713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>7</v>
       </c>
@@ -25735,7 +25736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -25758,7 +25759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>7</v>
       </c>
@@ -25781,7 +25782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>7</v>
       </c>
@@ -25804,7 +25805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -25827,7 +25828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>7</v>
       </c>
@@ -25850,7 +25851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>7</v>
       </c>
@@ -25873,7 +25874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -25896,7 +25897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>7</v>
       </c>
@@ -25919,7 +25920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>7</v>
       </c>
@@ -25942,7 +25943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>7</v>
       </c>
@@ -25965,7 +25966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>7</v>
       </c>
@@ -25988,7 +25989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>7</v>
       </c>
@@ -26011,7 +26012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>7</v>
       </c>
@@ -26034,7 +26035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>7</v>
       </c>
@@ -26057,7 +26058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>7</v>
       </c>
@@ -26080,7 +26081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26103,7 +26104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>7</v>
       </c>
@@ -26126,7 +26127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>7</v>
       </c>
@@ -26149,7 +26150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>7</v>
       </c>
@@ -26172,7 +26173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>7</v>
       </c>
@@ -26195,7 +26196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>7</v>
       </c>
@@ -26218,7 +26219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>7</v>
       </c>
@@ -26241,7 +26242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>7</v>
       </c>
@@ -26264,7 +26265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>7</v>
       </c>
@@ -26287,7 +26288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>7</v>
       </c>
@@ -26310,7 +26311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -26379,7 +26380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>7</v>
       </c>
@@ -26402,7 +26403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>7</v>
       </c>
@@ -26425,7 +26426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -26448,7 +26449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -26471,7 +26472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>7</v>
       </c>
@@ -26494,7 +26495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>7</v>
       </c>
@@ -26540,7 +26541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>7</v>
       </c>
@@ -26563,7 +26564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -26586,7 +26587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>7</v>
       </c>
@@ -26609,7 +26610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -26632,7 +26633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -26655,7 +26656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>7</v>
       </c>
@@ -26724,7 +26725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -26747,7 +26748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>7</v>
       </c>
@@ -26770,7 +26771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>7</v>
       </c>
@@ -26793,7 +26794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26816,7 +26817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>7</v>
       </c>
@@ -26862,7 +26863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>7</v>
       </c>
@@ -26931,7 +26932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -26977,7 +26978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -27023,7 +27024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>7</v>
       </c>
@@ -27046,7 +27047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>7</v>
       </c>
@@ -27069,7 +27070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>7</v>
       </c>
@@ -27092,7 +27093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>7</v>
       </c>
@@ -27115,7 +27116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>7</v>
       </c>
@@ -27138,7 +27139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>7</v>
       </c>
@@ -27161,7 +27162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -27184,7 +27185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -27207,7 +27208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27230,7 +27231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -27253,7 +27254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>7</v>
       </c>
@@ -27299,7 +27300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27322,7 +27323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -27345,7 +27346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -27368,7 +27369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>7</v>
       </c>
@@ -27391,7 +27392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>7</v>
       </c>
@@ -27414,7 +27415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>7</v>
       </c>
@@ -27437,7 +27438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>7</v>
       </c>
@@ -27460,7 +27461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -27483,7 +27484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>7</v>
       </c>
@@ -27506,7 +27507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>7</v>
       </c>
@@ -27529,7 +27530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>7</v>
       </c>
@@ -27552,7 +27553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>7</v>
       </c>
@@ -27575,7 +27576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>7</v>
       </c>
@@ -27598,7 +27599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>7</v>
       </c>
@@ -27621,7 +27622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>7</v>
       </c>
@@ -27667,7 +27668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>7</v>
       </c>
@@ -27690,7 +27691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>7</v>
       </c>
@@ -27736,7 +27737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -27759,7 +27760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>7</v>
       </c>
@@ -27782,7 +27783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>7</v>
       </c>
@@ -27805,7 +27806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>7</v>
       </c>
@@ -27828,7 +27829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>7</v>
       </c>
@@ -27851,7 +27852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>7</v>
       </c>
@@ -27874,7 +27875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>7</v>
       </c>
@@ -27897,7 +27898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>7</v>
       </c>
@@ -27920,7 +27921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>7</v>
       </c>
@@ -27943,7 +27944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>7</v>
       </c>
@@ -27966,7 +27967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>7</v>
       </c>
@@ -27989,7 +27990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>7</v>
       </c>
@@ -28012,7 +28013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -28035,7 +28036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -28058,7 +28059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>7</v>
       </c>
@@ -28081,7 +28082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>7</v>
       </c>
@@ -28104,7 +28105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>7</v>
       </c>
@@ -28127,7 +28128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>7</v>
       </c>
@@ -28150,7 +28151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>7</v>
       </c>
@@ -28173,7 +28174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>7</v>
       </c>
@@ -28196,7 +28197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>7</v>
       </c>
@@ -28219,7 +28220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>7</v>
       </c>
@@ -28242,7 +28243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>7</v>
       </c>
@@ -28265,7 +28266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>7</v>
       </c>
@@ -28288,7 +28289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -28311,7 +28312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>7</v>
       </c>
@@ -28380,7 +28381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>7</v>
       </c>
@@ -28426,7 +28427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>7</v>
       </c>
@@ -28472,7 +28473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>7</v>
       </c>
@@ -28495,7 +28496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>7</v>
       </c>
@@ -28518,7 +28519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>7</v>
       </c>
@@ -28564,7 +28565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -28587,7 +28588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>7</v>
       </c>
@@ -28610,7 +28611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>7</v>
       </c>
@@ -28633,7 +28634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>7</v>
       </c>
@@ -28679,7 +28680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>7</v>
       </c>
@@ -28702,7 +28703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>7</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>7</v>
       </c>
@@ -28771,7 +28772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>7</v>
       </c>
@@ -28794,7 +28795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>7</v>
       </c>
@@ -28817,7 +28818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>7</v>
       </c>
@@ -28840,7 +28841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>7</v>
       </c>
@@ -28863,7 +28864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>7</v>
       </c>
@@ -28886,7 +28887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>7</v>
       </c>
@@ -28909,7 +28910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>7</v>
       </c>
@@ -28932,7 +28933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>7</v>
       </c>
@@ -28955,7 +28956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>7</v>
       </c>
@@ -29024,7 +29025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>7</v>
       </c>
@@ -29047,7 +29048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>7</v>
       </c>
@@ -29070,7 +29071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>7</v>
       </c>
@@ -29139,7 +29140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>7</v>
       </c>
@@ -29162,7 +29163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>7</v>
       </c>
@@ -29185,7 +29186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>7</v>
       </c>
@@ -29208,7 +29209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>7</v>
       </c>
@@ -29254,7 +29255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>7</v>
       </c>
@@ -29277,7 +29278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>7</v>
       </c>
@@ -29300,7 +29301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>7</v>
       </c>
@@ -29323,7 +29324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>7</v>
       </c>
@@ -29346,7 +29347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29392,7 +29393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -29415,7 +29416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>7</v>
       </c>
@@ -29438,7 +29439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>7</v>
       </c>
@@ -29461,7 +29462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>7</v>
       </c>
@@ -29484,7 +29485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>7</v>
       </c>
@@ -29507,7 +29508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>7</v>
       </c>
@@ -29530,7 +29531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>7</v>
       </c>
@@ -29553,7 +29554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>7</v>
       </c>
@@ -29576,7 +29577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>7</v>
       </c>
@@ -29599,7 +29600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>7</v>
       </c>
@@ -29622,7 +29623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1092" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>7</v>
       </c>
@@ -29645,7 +29646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>7</v>
       </c>
@@ -29668,7 +29669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29691,7 +29692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>7</v>
       </c>
@@ -29737,7 +29738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>7</v>
       </c>
@@ -29760,7 +29761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>7</v>
       </c>
@@ -29806,7 +29807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>7</v>
       </c>
@@ -29829,7 +29830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29852,7 +29853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>7</v>
       </c>
@@ -29875,7 +29876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>7</v>
       </c>
@@ -29898,7 +29899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>7</v>
       </c>
@@ -29944,7 +29945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -29967,7 +29968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>7</v>
       </c>
@@ -29990,7 +29991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30036,7 +30037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>7</v>
       </c>
@@ -30059,7 +30060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>7</v>
       </c>
@@ -30082,7 +30083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>7</v>
       </c>
@@ -30105,7 +30106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>7</v>
       </c>
@@ -30128,7 +30129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>7</v>
       </c>
@@ -30151,7 +30152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30174,7 +30175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>7</v>
       </c>
@@ -30197,7 +30198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>7</v>
       </c>
@@ -30220,7 +30221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -30289,7 +30290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>7</v>
       </c>
@@ -30312,7 +30313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>7</v>
       </c>
@@ -30381,7 +30382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>7</v>
       </c>
@@ -30427,7 +30428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>7</v>
       </c>
@@ -30473,7 +30474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>7</v>
       </c>
@@ -30496,7 +30497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -30519,7 +30520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>7</v>
       </c>
@@ -30542,7 +30543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>7</v>
       </c>
@@ -30565,7 +30566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>7</v>
       </c>
@@ -30588,7 +30589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>7</v>
       </c>
@@ -30611,7 +30612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>7</v>
       </c>
@@ -30634,7 +30635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>7</v>
       </c>
@@ -30657,7 +30658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>7</v>
       </c>
@@ -30680,7 +30681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>7</v>
       </c>
@@ -30703,7 +30704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>7</v>
       </c>
@@ -30726,7 +30727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>7</v>
       </c>
@@ -30749,7 +30750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>7</v>
       </c>
@@ -30772,7 +30773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>7</v>
       </c>
@@ -30795,7 +30796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>7</v>
       </c>
@@ -30818,7 +30819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>7</v>
       </c>
@@ -30864,7 +30865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>7</v>
       </c>
@@ -30887,7 +30888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>7</v>
       </c>
@@ -30956,7 +30957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>7</v>
       </c>
@@ -30979,7 +30980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>7</v>
       </c>
@@ -31002,7 +31003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>7</v>
       </c>
@@ -31048,7 +31049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -31094,7 +31095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>7</v>
       </c>
@@ -31117,7 +31118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>7</v>
       </c>
@@ -31140,7 +31141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>7</v>
       </c>
@@ -31163,7 +31164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>7</v>
       </c>
@@ -31186,7 +31187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>7</v>
       </c>
@@ -31209,7 +31210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>7</v>
       </c>
@@ -31232,7 +31233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>7</v>
       </c>
@@ -31278,7 +31279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>7</v>
       </c>
@@ -31301,7 +31302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>7</v>
       </c>
@@ -31324,7 +31325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>7</v>
       </c>
@@ -31347,7 +31348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>7</v>
       </c>
@@ -31370,7 +31371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>7</v>
       </c>
@@ -31393,7 +31394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>7</v>
       </c>
@@ -31416,7 +31417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>7</v>
       </c>
@@ -31439,7 +31440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>7</v>
       </c>
@@ -31485,7 +31486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>7</v>
       </c>
@@ -31508,7 +31509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>7</v>
       </c>
@@ -31531,7 +31532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>7</v>
       </c>
@@ -31554,7 +31555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>7</v>
       </c>
@@ -31577,7 +31578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>7</v>
       </c>
@@ -31600,7 +31601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>7</v>
       </c>
@@ -31623,7 +31624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31646,7 +31647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31669,7 +31670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31692,7 +31693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31715,7 +31716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31738,7 +31739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31761,7 +31762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -31786,6 +31787,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MacKenzie Cited_2006:2010"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">
       <sortCondition ref="E1:E1185"/>
     </sortState>

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3476C4E2-EF8D-3B4C-8827-1A8D26C655F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B579C6B-034B-9641-8947-BAF62C657BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4516,12 +4516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E477" sqref="E477"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4576,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4898,7 +4897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -4990,7 +4989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5082,7 +5081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5128,7 +5127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5427,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5634,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5657,7 +5656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5772,7 +5771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5841,7 +5840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -6048,7 +6047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -6232,7 +6231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -6278,7 +6277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -6301,7 +6300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6324,7 +6323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +6369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6508,7 +6507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6600,7 +6599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6830,7 +6829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7198,7 +7197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7221,7 +7220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7267,7 +7266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7313,7 +7312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7451,7 +7450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -8003,7 +8002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8095,7 +8094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8141,7 +8140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8187,7 +8186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8210,7 +8209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8325,7 +8324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8417,7 +8416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8624,7 +8623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8762,7 +8761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8854,7 +8853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -8900,7 +8899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -8992,7 +8991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -9015,7 +9014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9199,7 +9198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9268,7 +9267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9383,7 +9382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9452,7 +9451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9521,7 +9520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9567,7 +9566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9590,7 +9589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>7</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9682,7 +9681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9728,7 +9727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>7</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9843,7 +9842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9912,7 +9911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9935,7 +9934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +10049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="170" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="170" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -10165,7 +10164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -10188,7 +10187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -10257,7 +10256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -10280,7 +10279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -10303,7 +10302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -10326,7 +10325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -10349,7 +10348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -10372,7 +10371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -10464,7 +10463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -10579,7 +10578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -10625,7 +10624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -10694,7 +10693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -10786,7 +10785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -10809,7 +10808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -10832,7 +10831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -10855,7 +10854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -10924,7 +10923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -10947,7 +10946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -10970,7 +10969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -11108,7 +11107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -11131,7 +11130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -11200,7 +11199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -11292,7 +11291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -11315,7 +11314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -11522,7 +11521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -11545,7 +11544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -11591,7 +11590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -11821,7 +11820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -11867,7 +11866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -11936,7 +11935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -11959,7 +11958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -12028,7 +12027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -12097,7 +12096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -12120,7 +12119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -12143,7 +12142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -12189,7 +12188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -12258,7 +12257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -12281,7 +12280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -12350,7 +12349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -12396,7 +12395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>7</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -12557,7 +12556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -12580,7 +12579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -12672,7 +12671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -12695,7 +12694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -12741,7 +12740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -12764,7 +12763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -12787,7 +12786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -12856,7 +12855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -12879,7 +12878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>7</v>
       </c>
@@ -12902,7 +12901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -12948,7 +12947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -13040,7 +13039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>7</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -13109,7 +13108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>7</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -13178,7 +13177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>7</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -13247,7 +13246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>7</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>7</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>7</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -13362,7 +13361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>7</v>
       </c>
@@ -13408,7 +13407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -13431,7 +13430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>7</v>
       </c>
@@ -13454,7 +13453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -13477,7 +13476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>7</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>7</v>
       </c>
@@ -13523,7 +13522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>7</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -13569,7 +13568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>7</v>
       </c>
@@ -13592,7 +13591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>7</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>7</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>7</v>
       </c>
@@ -13684,7 +13683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>7</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>7</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -13776,7 +13775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -13799,7 +13798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -13822,7 +13821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -13845,7 +13844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -13868,7 +13867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -13914,7 +13913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -13937,7 +13936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -13960,7 +13959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -13983,7 +13982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -14006,7 +14005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -14144,7 +14143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -14213,7 +14212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -14236,7 +14235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -14259,7 +14258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -14305,7 +14304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -14351,7 +14350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -14397,7 +14396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -14535,7 +14534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -14558,7 +14557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -14627,7 +14626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -14650,7 +14649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -14673,7 +14672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -14696,7 +14695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -14719,7 +14718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -14742,7 +14741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -14788,7 +14787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -14811,7 +14810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -14834,7 +14833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -14926,7 +14925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -14972,7 +14971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -14995,7 +14994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -15018,7 +15017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -15041,7 +15040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -15064,7 +15063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -15133,7 +15132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -15156,7 +15155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -15179,7 +15178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -15225,7 +15224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -15248,7 +15247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -15294,7 +15293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -15317,7 +15316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -15340,7 +15339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -15386,7 +15385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -15409,7 +15408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -15432,7 +15431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -15455,7 +15454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -15524,7 +15523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -15547,7 +15546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -15570,7 +15569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -15616,7 +15615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -15662,7 +15661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -15708,7 +15707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -15731,7 +15730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -15777,7 +15776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -15800,7 +15799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -15846,7 +15845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -15915,7 +15914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -15938,7 +15937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -15961,7 +15960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>7</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>7</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>7</v>
       </c>
@@ -16168,7 +16167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -16237,7 +16236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -16260,7 +16259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -16283,7 +16282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -16329,7 +16328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -16352,7 +16351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -16375,7 +16374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -16398,7 +16397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -16421,7 +16420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -16467,7 +16466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -16490,7 +16489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -16513,7 +16512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>7</v>
       </c>
@@ -16536,7 +16535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>7</v>
       </c>
@@ -16559,7 +16558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>7</v>
       </c>
@@ -16582,7 +16581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>7</v>
       </c>
@@ -16605,7 +16604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>7</v>
       </c>
@@ -16628,7 +16627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>7</v>
       </c>
@@ -16651,7 +16650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>7</v>
       </c>
@@ -16674,7 +16673,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>7</v>
       </c>
@@ -16697,7 +16696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>7</v>
       </c>
@@ -16743,7 +16742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>7</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>7</v>
       </c>
@@ -16789,7 +16788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>7</v>
       </c>
@@ -16812,7 +16811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>7</v>
       </c>
@@ -16835,7 +16834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>7</v>
       </c>
@@ -16858,7 +16857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>7</v>
       </c>
@@ -16881,7 +16880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -16904,7 +16903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -16927,7 +16926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -16950,7 +16949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>7</v>
       </c>
@@ -16996,7 +16995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>7</v>
       </c>
@@ -17019,7 +17018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>7</v>
       </c>
@@ -17042,7 +17041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>7</v>
       </c>
@@ -17065,7 +17064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>7</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -17111,7 +17110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>7</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>7</v>
       </c>
@@ -17180,7 +17179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>7</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>7</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>7</v>
       </c>
@@ -17249,7 +17248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>7</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>7</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>7</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>7</v>
       </c>
@@ -17387,7 +17386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>7</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -17433,7 +17432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>7</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>7</v>
       </c>
@@ -17502,7 +17501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>7</v>
       </c>
@@ -17525,7 +17524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -17548,7 +17547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>7</v>
       </c>
@@ -17571,7 +17570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>7</v>
       </c>
@@ -17594,7 +17593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>7</v>
       </c>
@@ -17640,7 +17639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>7</v>
       </c>
@@ -17709,7 +17708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>7</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>7</v>
       </c>
@@ -17755,7 +17754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>7</v>
       </c>
@@ -17778,7 +17777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>7</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>7</v>
       </c>
@@ -17824,7 +17823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>7</v>
       </c>
@@ -17847,7 +17846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>7</v>
       </c>
@@ -17893,7 +17892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>7</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="583" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>7</v>
       </c>
@@ -18008,7 +18007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -18031,7 +18030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="589" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="590" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -18100,7 +18099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -18123,7 +18122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="592" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -18169,7 +18168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="594" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -18192,7 +18191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -18238,7 +18237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="597" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>7</v>
       </c>
@@ -18261,7 +18260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="598" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>7</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="599" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>7</v>
       </c>
@@ -18307,7 +18306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>7</v>
       </c>
@@ -18330,7 +18329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>7</v>
       </c>
@@ -18353,7 +18352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>7</v>
       </c>
@@ -18376,7 +18375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>7</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>7</v>
       </c>
@@ -18422,7 +18421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>7</v>
       </c>
@@ -18468,7 +18467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>7</v>
       </c>
@@ -18491,7 +18490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>7</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>7</v>
       </c>
@@ -18537,7 +18536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>7</v>
       </c>
@@ -18560,7 +18559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -18583,7 +18582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>7</v>
       </c>
@@ -18606,7 +18605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>7</v>
       </c>
@@ -18629,7 +18628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -18652,7 +18651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>7</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>7</v>
       </c>
@@ -18698,7 +18697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>7</v>
       </c>
@@ -18721,7 +18720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>7</v>
       </c>
@@ -18744,7 +18743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>7</v>
       </c>
@@ -18767,7 +18766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>7</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>7</v>
       </c>
@@ -18813,7 +18812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>7</v>
       </c>
@@ -18836,7 +18835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>7</v>
       </c>
@@ -18928,7 +18927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>7</v>
       </c>
@@ -18951,7 +18950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>7</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>7</v>
       </c>
@@ -19020,7 +19019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -19043,7 +19042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="632" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>7</v>
       </c>
@@ -19066,7 +19065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>7</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>7</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>7</v>
       </c>
@@ -19181,7 +19180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>7</v>
       </c>
@@ -19204,7 +19203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="639" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>7</v>
       </c>
@@ -19227,7 +19226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>7</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="641" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>7</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="642" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>7</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>7</v>
       </c>
@@ -19342,7 +19341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>7</v>
       </c>
@@ -19365,7 +19364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>7</v>
       </c>
@@ -19388,7 +19387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>7</v>
       </c>
@@ -19411,7 +19410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="648" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>7</v>
       </c>
@@ -19434,7 +19433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>7</v>
       </c>
@@ -19480,7 +19479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>7</v>
       </c>
@@ -19503,7 +19502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>7</v>
       </c>
@@ -19549,7 +19548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>7</v>
       </c>
@@ -19618,7 +19617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="657" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>7</v>
       </c>
@@ -19641,7 +19640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="658" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>7</v>
       </c>
@@ -19664,7 +19663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>7</v>
       </c>
@@ -19687,7 +19686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>7</v>
       </c>
@@ -19710,7 +19709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>7</v>
       </c>
@@ -19733,7 +19732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -19756,7 +19755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>7</v>
       </c>
@@ -19779,7 +19778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>7</v>
       </c>
@@ -19802,7 +19801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="665" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>7</v>
       </c>
@@ -19825,7 +19824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="666" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>7</v>
       </c>
@@ -19848,7 +19847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="667" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>7</v>
       </c>
@@ -19871,7 +19870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>7</v>
       </c>
@@ -19894,7 +19893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="669" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>7</v>
       </c>
@@ -19917,7 +19916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="670" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -19963,7 +19962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>7</v>
       </c>
@@ -19986,7 +19985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="673" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>7</v>
       </c>
@@ -20009,7 +20008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="674" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>7</v>
       </c>
@@ -20078,7 +20077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="677" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>7</v>
       </c>
@@ -20101,7 +20100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="678" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>7</v>
       </c>
@@ -20147,7 +20146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="680" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>7</v>
       </c>
@@ -20170,7 +20169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="681" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>7</v>
       </c>
@@ -20216,7 +20215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="683" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>7</v>
       </c>
@@ -20239,7 +20238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -20262,7 +20261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="685" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -20285,7 +20284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="686" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -20308,7 +20307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="687" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>7</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="688" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>7</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>7</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="691" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>7</v>
       </c>
@@ -20423,7 +20422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>7</v>
       </c>
@@ -20446,7 +20445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="693" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="694" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>7</v>
       </c>
@@ -20492,7 +20491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="695" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -20515,7 +20514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="696" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>7</v>
       </c>
@@ -20538,7 +20537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="697" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>7</v>
       </c>
@@ -20561,7 +20560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>7</v>
       </c>
@@ -20584,7 +20583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>7</v>
       </c>
@@ -20630,7 +20629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="701" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>7</v>
       </c>
@@ -20653,7 +20652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="702" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -20676,7 +20675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="703" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>7</v>
       </c>
@@ -20699,7 +20698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>7</v>
       </c>
@@ -20722,7 +20721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>7</v>
       </c>
@@ -20745,7 +20744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="706" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>7</v>
       </c>
@@ -20791,7 +20790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>7</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>7</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="710" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>7</v>
       </c>
@@ -20860,7 +20859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>7</v>
       </c>
@@ -20883,7 +20882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -20906,7 +20905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -20929,7 +20928,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="714" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -20952,7 +20951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="715" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -20998,7 +20997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>7</v>
       </c>
@@ -21021,7 +21020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>7</v>
       </c>
@@ -21044,7 +21043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>7</v>
       </c>
@@ -21067,7 +21066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>7</v>
       </c>
@@ -21090,7 +21089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="721" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>7</v>
       </c>
@@ -21113,7 +21112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="722" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>7</v>
       </c>
@@ -21159,7 +21158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="724" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>7</v>
       </c>
@@ -21205,7 +21204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="726" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>7</v>
       </c>
@@ -21228,7 +21227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>7</v>
       </c>
@@ -21251,7 +21250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="728" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>7</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="730" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>7</v>
       </c>
@@ -21320,7 +21319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="731" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>7</v>
       </c>
@@ -21366,7 +21365,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="733" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>7</v>
       </c>
@@ -21389,7 +21388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="734" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -21412,7 +21411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="735" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>7</v>
       </c>
@@ -21481,7 +21480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="738" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>7</v>
       </c>
@@ -21504,7 +21503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="739" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>7</v>
       </c>
@@ -21527,7 +21526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="740" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>7</v>
       </c>
@@ -21573,7 +21572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="742" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>7</v>
       </c>
@@ -21596,7 +21595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>7</v>
       </c>
@@ -21619,7 +21618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="744" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>7</v>
       </c>
@@ -21642,7 +21641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="745" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>7</v>
       </c>
@@ -21665,7 +21664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="746" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>7</v>
       </c>
@@ -21688,7 +21687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="747" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -21711,7 +21710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="748" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>7</v>
       </c>
@@ -21734,7 +21733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="749" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -21757,7 +21756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="750" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -21780,7 +21779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="751" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -21803,7 +21802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="752" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -21826,7 +21825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="753" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>7</v>
       </c>
@@ -21849,7 +21848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="754" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>7</v>
       </c>
@@ -21872,7 +21871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="755" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>7</v>
       </c>
@@ -21895,7 +21894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="756" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>7</v>
       </c>
@@ -21918,7 +21917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="757" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>7</v>
       </c>
@@ -21941,7 +21940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="758" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>7</v>
       </c>
@@ -21964,7 +21963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="759" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>7</v>
       </c>
@@ -21987,7 +21986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="760" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>7</v>
       </c>
@@ -22010,7 +22009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>7</v>
       </c>
@@ -22033,7 +22032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="762" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>7</v>
       </c>
@@ -22056,7 +22055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="763" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>7</v>
       </c>
@@ -22125,7 +22124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="766" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A766" s="4" t="s">
         <v>7</v>
       </c>
@@ -22148,7 +22147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="767" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>7</v>
       </c>
@@ -22171,7 +22170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="768" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>7</v>
       </c>
@@ -22194,7 +22193,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="769" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>7</v>
       </c>
@@ -22217,7 +22216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>7</v>
       </c>
@@ -22240,7 +22239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="771" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>7</v>
       </c>
@@ -22263,7 +22262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>7</v>
       </c>
@@ -22286,7 +22285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="773" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>7</v>
       </c>
@@ -22309,7 +22308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="774" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>7</v>
       </c>
@@ -22332,7 +22331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="775" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>7</v>
       </c>
@@ -22355,7 +22354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="776" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>7</v>
       </c>
@@ -22378,7 +22377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="777" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>7</v>
       </c>
@@ -22401,7 +22400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="778" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>7</v>
       </c>
@@ -22424,7 +22423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="779" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>7</v>
       </c>
@@ -22447,7 +22446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="780" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>7</v>
       </c>
@@ -22470,7 +22469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="781" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>7</v>
       </c>
@@ -22493,7 +22492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="782" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>7</v>
       </c>
@@ -22516,7 +22515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="783" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>7</v>
       </c>
@@ -22539,7 +22538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>7</v>
       </c>
@@ -22562,7 +22561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>7</v>
       </c>
@@ -22585,7 +22584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>7</v>
       </c>
@@ -22608,7 +22607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="787" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>7</v>
       </c>
@@ -22654,7 +22653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="789" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>7</v>
       </c>
@@ -22677,7 +22676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="790" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>7</v>
       </c>
@@ -22700,7 +22699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="791" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -22746,7 +22745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="793" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A793" s="6" t="s">
         <v>7</v>
       </c>
@@ -22769,7 +22768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>7</v>
       </c>
@@ -22792,7 +22791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="795" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>7</v>
       </c>
@@ -22815,7 +22814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="796" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>7</v>
       </c>
@@ -22838,7 +22837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="797" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>7</v>
       </c>
@@ -22861,7 +22860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="798" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A798" s="4" t="s">
         <v>7</v>
       </c>
@@ -22884,7 +22883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="799" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>7</v>
       </c>
@@ -22907,7 +22906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="800" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>7</v>
       </c>
@@ -22930,7 +22929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="801" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>7</v>
       </c>
@@ -22953,7 +22952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>7</v>
       </c>
@@ -22976,7 +22975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="803" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>7</v>
       </c>
@@ -22999,7 +22998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="804" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>7</v>
       </c>
@@ -23022,7 +23021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>7</v>
       </c>
@@ -23045,7 +23044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>7</v>
       </c>
@@ -23068,7 +23067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="807" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>7</v>
       </c>
@@ -23091,7 +23090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>7</v>
       </c>
@@ -23114,7 +23113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>7</v>
       </c>
@@ -23137,7 +23136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>7</v>
       </c>
@@ -23160,7 +23159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>7</v>
       </c>
@@ -23183,7 +23182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="812" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>7</v>
       </c>
@@ -23206,7 +23205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="813" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>7</v>
       </c>
@@ -23252,7 +23251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>7</v>
       </c>
@@ -23275,7 +23274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>7</v>
       </c>
@@ -23298,7 +23297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="817" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>7</v>
       </c>
@@ -23321,7 +23320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="818" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>7</v>
       </c>
@@ -23344,7 +23343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="819" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>7</v>
       </c>
@@ -23390,7 +23389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="821" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>7</v>
       </c>
@@ -23413,7 +23412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="822" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>7</v>
       </c>
@@ -23436,7 +23435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>7</v>
       </c>
@@ -23459,7 +23458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="824" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>7</v>
       </c>
@@ -23482,7 +23481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="825" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>7</v>
       </c>
@@ -23505,7 +23504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="826" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A826" s="4" t="s">
         <v>7</v>
       </c>
@@ -23528,7 +23527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>7</v>
       </c>
@@ -23574,7 +23573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>7</v>
       </c>
@@ -23597,7 +23596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="830" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>7</v>
       </c>
@@ -23620,7 +23619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>7</v>
       </c>
@@ -23643,7 +23642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>7</v>
       </c>
@@ -23666,7 +23665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="833" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>7</v>
       </c>
@@ -23689,7 +23688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="834" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>7</v>
       </c>
@@ -23712,7 +23711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="835" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>7</v>
       </c>
@@ -23735,7 +23734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="836" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>7</v>
       </c>
@@ -23758,7 +23757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="837" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>7</v>
       </c>
@@ -23781,7 +23780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="838" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>7</v>
       </c>
@@ -23827,7 +23826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="840" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>7</v>
       </c>
@@ -23850,7 +23849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>7</v>
       </c>
@@ -23873,7 +23872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>7</v>
       </c>
@@ -23896,7 +23895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="843" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>7</v>
       </c>
@@ -23919,7 +23918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="844" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>7</v>
       </c>
@@ -23942,7 +23941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>7</v>
       </c>
@@ -23965,7 +23964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="846" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>7</v>
       </c>
@@ -23988,7 +23987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>7</v>
       </c>
@@ -24011,7 +24010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="848" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>7</v>
       </c>
@@ -24034,7 +24033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>7</v>
       </c>
@@ -24057,7 +24056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="850" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>7</v>
       </c>
@@ -24080,7 +24079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="851" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>7</v>
       </c>
@@ -24103,7 +24102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="852" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>7</v>
       </c>
@@ -24126,7 +24125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A853" s="4" t="s">
         <v>7</v>
       </c>
@@ -24149,7 +24148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="854" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>7</v>
       </c>
@@ -24172,7 +24171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="855" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>7</v>
       </c>
@@ -24195,7 +24194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="856" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>7</v>
       </c>
@@ -24241,7 +24240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="858" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>7</v>
       </c>
@@ -24264,7 +24263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="859" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A859" s="4" t="s">
         <v>7</v>
       </c>
@@ -24287,7 +24286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="860" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>7</v>
       </c>
@@ -24310,7 +24309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="861" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>7</v>
       </c>
@@ -24356,7 +24355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="863" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>7</v>
       </c>
@@ -24379,7 +24378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="864" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>7</v>
       </c>
@@ -24402,7 +24401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="865" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>7</v>
       </c>
@@ -24425,7 +24424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="866" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>7</v>
       </c>
@@ -24448,7 +24447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="867" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>7</v>
       </c>
@@ -24494,7 +24493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="869" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>7</v>
       </c>
@@ -24540,7 +24539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="871" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>7</v>
       </c>
@@ -24563,7 +24562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>7</v>
       </c>
@@ -24586,7 +24585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="873" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>7</v>
       </c>
@@ -24609,7 +24608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="874" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>7</v>
       </c>
@@ -24632,7 +24631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="875" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>7</v>
       </c>
@@ -24655,7 +24654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="876" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>7</v>
       </c>
@@ -24678,7 +24677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="877" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>7</v>
       </c>
@@ -24701,7 +24700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="878" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>7</v>
       </c>
@@ -24724,7 +24723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="879" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>7</v>
       </c>
@@ -24747,7 +24746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="880" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>7</v>
       </c>
@@ -24770,7 +24769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>7</v>
       </c>
@@ -24793,7 +24792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="882" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A882" s="6" t="s">
         <v>7</v>
       </c>
@@ -24816,7 +24815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="883" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>7</v>
       </c>
@@ -24839,7 +24838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>7</v>
       </c>
@@ -24862,7 +24861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="885" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>7</v>
       </c>
@@ -24885,7 +24884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="886" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>7</v>
       </c>
@@ -24908,7 +24907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="887" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>7</v>
       </c>
@@ -24931,7 +24930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="888" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>7</v>
       </c>
@@ -24954,7 +24953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="889" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>7</v>
       </c>
@@ -24977,7 +24976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>7</v>
       </c>
@@ -25000,7 +24999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="891" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>7</v>
       </c>
@@ -25046,7 +25045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="893" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>7</v>
       </c>
@@ -25069,7 +25068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="894" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>7</v>
       </c>
@@ -25092,7 +25091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="895" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="896" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>7</v>
       </c>
@@ -25138,7 +25137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="897" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>7</v>
       </c>
@@ -25184,7 +25183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="899" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>7</v>
       </c>
@@ -25230,7 +25229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="901" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>7</v>
       </c>
@@ -25253,7 +25252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="902" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>7</v>
       </c>
@@ -25276,7 +25275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="903" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>7</v>
       </c>
@@ -25299,7 +25298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="904" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>7</v>
       </c>
@@ -25322,7 +25321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="905" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>7</v>
       </c>
@@ -25391,7 +25390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="908" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>7</v>
       </c>
@@ -25437,7 +25436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>7</v>
       </c>
@@ -25460,7 +25459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="911" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>7</v>
       </c>
@@ -25483,7 +25482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="912" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>7</v>
       </c>
@@ -25529,7 +25528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="914" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>7</v>
       </c>
@@ -25552,7 +25551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="915" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>7</v>
       </c>
@@ -25575,7 +25574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="916" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>7</v>
       </c>
@@ -25598,7 +25597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="917" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>7</v>
       </c>
@@ -25621,7 +25620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="918" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>7</v>
       </c>
@@ -25644,7 +25643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="919" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>7</v>
       </c>
@@ -25667,7 +25666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="920" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>7</v>
       </c>
@@ -25690,7 +25689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="921" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>7</v>
       </c>
@@ -25713,7 +25712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="922" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>7</v>
       </c>
@@ -25736,7 +25735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="923" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>7</v>
       </c>
@@ -25759,7 +25758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="924" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>7</v>
       </c>
@@ -25782,7 +25781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>7</v>
       </c>
@@ -25805,7 +25804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>7</v>
       </c>
@@ -25828,7 +25827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>7</v>
       </c>
@@ -25851,7 +25850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>7</v>
       </c>
@@ -25874,7 +25873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>7</v>
       </c>
@@ -25897,7 +25896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>7</v>
       </c>
@@ -25920,7 +25919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="931" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>7</v>
       </c>
@@ -25943,7 +25942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="932" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>7</v>
       </c>
@@ -25966,7 +25965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="933" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>7</v>
       </c>
@@ -25989,7 +25988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="934" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>7</v>
       </c>
@@ -26012,7 +26011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>7</v>
       </c>
@@ -26035,7 +26034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="936" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>7</v>
       </c>
@@ -26058,7 +26057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="937" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>7</v>
       </c>
@@ -26081,7 +26080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="938" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>7</v>
       </c>
@@ -26104,7 +26103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="939" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>7</v>
       </c>
@@ -26127,7 +26126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>7</v>
       </c>
@@ -26150,7 +26149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>7</v>
       </c>
@@ -26173,7 +26172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>7</v>
       </c>
@@ -26196,7 +26195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>7</v>
       </c>
@@ -26219,7 +26218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>7</v>
       </c>
@@ -26242,7 +26241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="945" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>7</v>
       </c>
@@ -26265,7 +26264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="946" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>7</v>
       </c>
@@ -26288,7 +26287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="947" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>7</v>
       </c>
@@ -26311,7 +26310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>7</v>
       </c>
@@ -26380,7 +26379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="951" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>7</v>
       </c>
@@ -26403,7 +26402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="952" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>7</v>
       </c>
@@ -26426,7 +26425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="953" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>7</v>
       </c>
@@ -26449,7 +26448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="954" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>7</v>
       </c>
@@ -26472,7 +26471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="955" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>7</v>
       </c>
@@ -26495,7 +26494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="956" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>7</v>
       </c>
@@ -26541,7 +26540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="958" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>7</v>
       </c>
@@ -26564,7 +26563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="959" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>7</v>
       </c>
@@ -26587,7 +26586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="960" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>7</v>
       </c>
@@ -26610,7 +26609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="961" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>7</v>
       </c>
@@ -26633,7 +26632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="962" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>7</v>
       </c>
@@ -26656,7 +26655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>7</v>
       </c>
@@ -26725,7 +26724,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="966" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>7</v>
       </c>
@@ -26748,7 +26747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="967" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>7</v>
       </c>
@@ -26771,7 +26770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>7</v>
       </c>
@@ -26794,7 +26793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="969" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>7</v>
       </c>
@@ -26817,7 +26816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="970" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>7</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="972" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>7</v>
       </c>
@@ -26932,7 +26931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="975" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>7</v>
       </c>
@@ -26978,7 +26977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>7</v>
       </c>
@@ -27024,7 +27023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>7</v>
       </c>
@@ -27047,7 +27046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>7</v>
       </c>
@@ -27070,7 +27069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>7</v>
       </c>
@@ -27093,7 +27092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>7</v>
       </c>
@@ -27116,7 +27115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>7</v>
       </c>
@@ -27139,7 +27138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>7</v>
       </c>
@@ -27162,7 +27161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>7</v>
       </c>
@@ -27185,7 +27184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>7</v>
       </c>
@@ -27208,7 +27207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>7</v>
       </c>
@@ -27231,7 +27230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>7</v>
       </c>
@@ -27254,7 +27253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>7</v>
       </c>
@@ -27300,7 +27299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>7</v>
       </c>
@@ -27323,7 +27322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>7</v>
       </c>
@@ -27346,7 +27345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="993" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>7</v>
       </c>
@@ -27369,7 +27368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="994" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>7</v>
       </c>
@@ -27392,7 +27391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="995" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>7</v>
       </c>
@@ -27415,7 +27414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>7</v>
       </c>
@@ -27438,7 +27437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="997" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>7</v>
       </c>
@@ -27461,7 +27460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="998" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>7</v>
       </c>
@@ -27484,7 +27483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="999" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>7</v>
       </c>
@@ -27507,7 +27506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1000" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>7</v>
       </c>
@@ -27530,7 +27529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1001" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>7</v>
       </c>
@@ -27553,7 +27552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1002" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>7</v>
       </c>
@@ -27576,7 +27575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1003" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>7</v>
       </c>
@@ -27599,7 +27598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1004" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>7</v>
       </c>
@@ -27622,7 +27621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>7</v>
       </c>
@@ -27668,7 +27667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>7</v>
       </c>
@@ -27691,7 +27690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1008" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>7</v>
       </c>
@@ -27737,7 +27736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1010" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>7</v>
       </c>
@@ -27760,7 +27759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1011" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>7</v>
       </c>
@@ -27783,7 +27782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1012" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>7</v>
       </c>
@@ -27806,7 +27805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1013" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>7</v>
       </c>
@@ -27829,7 +27828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1014" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>7</v>
       </c>
@@ -27852,7 +27851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1015" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>7</v>
       </c>
@@ -27875,7 +27874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1016" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>7</v>
       </c>
@@ -27898,7 +27897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>7</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
         <v>7</v>
       </c>
@@ -27944,7 +27943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1019" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
         <v>7</v>
       </c>
@@ -27967,7 +27966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1020" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>7</v>
       </c>
@@ -27990,7 +27989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1021" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>7</v>
       </c>
@@ -28013,7 +28012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>7</v>
       </c>
@@ -28036,7 +28035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1023" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -28059,7 +28058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1024" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>7</v>
       </c>
@@ -28082,7 +28081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>7</v>
       </c>
@@ -28105,7 +28104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>7</v>
       </c>
@@ -28128,7 +28127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>7</v>
       </c>
@@ -28151,7 +28150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>7</v>
       </c>
@@ -28174,7 +28173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>7</v>
       </c>
@@ -28197,7 +28196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
         <v>7</v>
       </c>
@@ -28220,7 +28219,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>7</v>
       </c>
@@ -28243,7 +28242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>7</v>
       </c>
@@ -28266,7 +28265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>7</v>
       </c>
@@ -28289,7 +28288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>7</v>
       </c>
@@ -28312,7 +28311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>7</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>7</v>
       </c>
@@ -28427,7 +28426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>7</v>
       </c>
@@ -28473,7 +28472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>7</v>
       </c>
@@ -28496,7 +28495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>7</v>
       </c>
@@ -28519,7 +28518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>7</v>
       </c>
@@ -28565,7 +28564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>7</v>
       </c>
@@ -28588,7 +28587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>7</v>
       </c>
@@ -28611,7 +28610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>7</v>
       </c>
@@ -28634,7 +28633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>7</v>
       </c>
@@ -28680,7 +28679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>7</v>
       </c>
@@ -28703,7 +28702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>7</v>
       </c>
@@ -28726,7 +28725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>7</v>
       </c>
@@ -28772,7 +28771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>7</v>
       </c>
@@ -28795,7 +28794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>7</v>
       </c>
@@ -28818,7 +28817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>7</v>
       </c>
@@ -28841,7 +28840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>7</v>
       </c>
@@ -28864,7 +28863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>7</v>
       </c>
@@ -28887,7 +28886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>7</v>
       </c>
@@ -28910,7 +28909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>7</v>
       </c>
@@ -28933,7 +28932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>7</v>
       </c>
@@ -28956,7 +28955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>7</v>
       </c>
@@ -29025,7 +29024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>7</v>
       </c>
@@ -29048,7 +29047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>7</v>
       </c>
@@ -29071,7 +29070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>7</v>
       </c>
@@ -29140,7 +29139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>7</v>
       </c>
@@ -29163,7 +29162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>7</v>
       </c>
@@ -29186,7 +29185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>7</v>
       </c>
@@ -29209,7 +29208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>7</v>
       </c>
@@ -29255,7 +29254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1076" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>7</v>
       </c>
@@ -29278,7 +29277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>7</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1078" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>7</v>
       </c>
@@ -29324,7 +29323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1079" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>7</v>
       </c>
@@ -29347,7 +29346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>7</v>
       </c>
@@ -29393,7 +29392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>7</v>
       </c>
@@ -29416,7 +29415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1083" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>7</v>
       </c>
@@ -29439,7 +29438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>7</v>
       </c>
@@ -29462,7 +29461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
         <v>7</v>
       </c>
@@ -29485,7 +29484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1086" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1086" t="s">
         <v>7</v>
       </c>
@@ -29508,7 +29507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1087" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1087" t="s">
         <v>7</v>
       </c>
@@ -29531,7 +29530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1088" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1088" t="s">
         <v>7</v>
       </c>
@@ -29554,7 +29553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1089" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>7</v>
       </c>
@@ -29577,7 +29576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1090" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1090" t="s">
         <v>7</v>
       </c>
@@ -29600,7 +29599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1091" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
         <v>7</v>
       </c>
@@ -29623,7 +29622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1092" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1092" t="s">
         <v>7</v>
       </c>
@@ -29646,7 +29645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1093" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1093" t="s">
         <v>7</v>
       </c>
@@ -29669,7 +29668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1094" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1094" t="s">
         <v>7</v>
       </c>
@@ -29692,7 +29691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1095" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1095" t="s">
         <v>7</v>
       </c>
@@ -29738,7 +29737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
         <v>7</v>
       </c>
@@ -29761,7 +29760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1098" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1098" t="s">
         <v>7</v>
       </c>
@@ -29807,7 +29806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1100" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
         <v>7</v>
       </c>
@@ -29830,7 +29829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1101" spans="1:7" ht="136" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
         <v>7</v>
       </c>
@@ -29853,7 +29852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1102" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
         <v>7</v>
       </c>
@@ -29876,7 +29875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1103" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
         <v>7</v>
       </c>
@@ -29899,7 +29898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1104" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1104" t="s">
         <v>7</v>
       </c>
@@ -29945,7 +29944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
         <v>7</v>
       </c>
@@ -29968,7 +29967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1107" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
         <v>7</v>
       </c>
@@ -29991,7 +29990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1108" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
         <v>7</v>
       </c>
@@ -30037,7 +30036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1110" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
         <v>7</v>
       </c>
@@ -30060,7 +30059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1111" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1111" t="s">
         <v>7</v>
       </c>
@@ -30083,7 +30082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1112" t="s">
         <v>7</v>
       </c>
@@ -30106,7 +30105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1113" t="s">
         <v>7</v>
       </c>
@@ -30129,7 +30128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1114" t="s">
         <v>7</v>
       </c>
@@ -30152,7 +30151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1115" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1115" t="s">
         <v>7</v>
       </c>
@@ -30175,7 +30174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1116" t="s">
         <v>7</v>
       </c>
@@ -30198,7 +30197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1117" t="s">
         <v>7</v>
       </c>
@@ -30221,7 +30220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1118" t="s">
         <v>7</v>
       </c>
@@ -30290,7 +30289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1121" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
         <v>7</v>
       </c>
@@ -30313,7 +30312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1122" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1122" t="s">
         <v>7</v>
       </c>
@@ -30382,7 +30381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1125" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1125" t="s">
         <v>7</v>
       </c>
@@ -30428,7 +30427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1127" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
         <v>7</v>
       </c>
@@ -30474,7 +30473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
         <v>7</v>
       </c>
@@ -30497,7 +30496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1130" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
         <v>7</v>
       </c>
@@ -30520,7 +30519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1131" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
         <v>7</v>
       </c>
@@ -30543,7 +30542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1132" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
         <v>7</v>
       </c>
@@ -30566,7 +30565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1133" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
         <v>7</v>
       </c>
@@ -30589,7 +30588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1134" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
         <v>7</v>
       </c>
@@ -30612,7 +30611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1135" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
         <v>7</v>
       </c>
@@ -30635,7 +30634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1136" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
         <v>7</v>
       </c>
@@ -30658,7 +30657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
         <v>7</v>
       </c>
@@ -30681,7 +30680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1138" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
         <v>7</v>
       </c>
@@ -30704,7 +30703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
         <v>7</v>
       </c>
@@ -30727,7 +30726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
         <v>7</v>
       </c>
@@ -30750,7 +30749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1141" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
         <v>7</v>
       </c>
@@ -30773,7 +30772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>7</v>
       </c>
@@ -30796,7 +30795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1143" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>7</v>
       </c>
@@ -30819,7 +30818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>7</v>
       </c>
@@ -30865,7 +30864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1146" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>7</v>
       </c>
@@ -30888,7 +30887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>7</v>
       </c>
@@ -30957,7 +30956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>7</v>
       </c>
@@ -30980,7 +30979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>7</v>
       </c>
@@ -31003,7 +31002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>7</v>
       </c>
@@ -31049,7 +31048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1154" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>7</v>
       </c>
@@ -31095,7 +31094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>7</v>
       </c>
@@ -31118,7 +31117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1157" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>7</v>
       </c>
@@ -31141,7 +31140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>7</v>
       </c>
@@ -31164,7 +31163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>7</v>
       </c>
@@ -31187,7 +31186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>7</v>
       </c>
@@ -31210,7 +31209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1161" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>7</v>
       </c>
@@ -31233,7 +31232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>7</v>
       </c>
@@ -31279,7 +31278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1164" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>7</v>
       </c>
@@ -31302,7 +31301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>7</v>
       </c>
@@ -31325,7 +31324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>7</v>
       </c>
@@ -31348,7 +31347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1167" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>7</v>
       </c>
@@ -31371,7 +31370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1168" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>7</v>
       </c>
@@ -31394,7 +31393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1169" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>7</v>
       </c>
@@ -31417,7 +31416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1170" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>7</v>
       </c>
@@ -31440,7 +31439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1171" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>7</v>
       </c>
@@ -31486,7 +31485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>7</v>
       </c>
@@ -31509,7 +31508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1174" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>7</v>
       </c>
@@ -31532,7 +31531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>7</v>
       </c>
@@ -31555,7 +31554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>7</v>
       </c>
@@ -31578,7 +31577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1177" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>7</v>
       </c>
@@ -31601,7 +31600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1178" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>7</v>
       </c>
@@ -31624,7 +31623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1179" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>7</v>
       </c>
@@ -31647,7 +31646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1180" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>7</v>
       </c>
@@ -31670,7 +31669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>7</v>
       </c>
@@ -31693,7 +31692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>7</v>
       </c>
@@ -31716,7 +31715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1183" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>7</v>
       </c>
@@ -31739,7 +31738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1184" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>7</v>
       </c>
@@ -31762,7 +31761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1185" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>7</v>
       </c>
@@ -31787,11 +31786,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1185" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MacKenzie Cited_2006:2010"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1185">
       <sortCondition ref="E1:E1185"/>
     </sortState>

--- a/Randomisation/SecondSampleRanks.xlsx
+++ b/Randomisation/SecondSampleRanks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saoirsekelleher/Documents/Research/QAEco/DOM_Review/Randomisation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B579C6B-034B-9641-8947-BAF62C657BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8297FA4-C3C3-0246-A5C3-B9FE43742957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4516,11 +4516,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G240" sqref="G240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4552,7 +4553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -5127,7 +5128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
@@ -5150,7 +5151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>7</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>7</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>7</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>7</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>7</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -5518,7 +5519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -5587,7 +5588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
@@ -5679,30 +5680,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
+    <row r="51" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1">
         <v>1294</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>50</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>10</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>7</v>
       </c>
@@ -5725,30 +5726,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53">
+    <row r="53" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="4">
         <v>1338</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="4">
         <v>52</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="4">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>7</v>
       </c>
@@ -5772,29 +5773,29 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="4">
         <v>430</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>1072</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="4">
         <v>54</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="4">
         <v>3</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>7</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>7</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>7</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>7</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>7</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>7</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>7</v>
       </c>
@@ -6254,7 +6255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>7</v>
       </c>
@@ -6277,7 +6278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>7</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>7</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>7</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>7</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>7</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>7</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -6484,7 +6485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>7</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -6599,7 +6600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -6875,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>7</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>7</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>7</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>7</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -7174,7 +7175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>7</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -7404,7 +7405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -7427,7 +7428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>7</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -7519,7 +7520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>7</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>7</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -7841,7 +7842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -8025,7 +8026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -8071,7 +8072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>7</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -8278,7 +8279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -8393,7 +8394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -8416,7 +8417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>7</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>7</v>
       </c>
@@ -8600,7 +8601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8646,7 +8647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8669,7 +8670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8738,7 +8739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>7</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>7</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>7</v>
       </c>
@@ -8853,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -8922,7 +8923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -8968,7 +8969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -9106,7 +9107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>7</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>7</v>
       </c>
@@ -9152,7 +9153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -9198,7 +9199,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -9267,7 +9268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -9290,7 +9291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>7</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -9428,7 +9429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>7</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -9566,7 +9567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -9612,7 +9613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="119" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -9635,7 +9636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -9658,7 +9659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -9704,7 +9705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>7</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="102" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>7</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>7</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -9843,29 +9844,29 @@
       </c>
     </row>
     <row r="232" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232">
+      <c r="A232" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B232" s="4">
         <v>377</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="4">
         <v>231</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="4">
         <v>19</v>
       </c>
-      <c r="G232" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="G232" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="68" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -9934,7 +9935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>7</v>
       </c>
@@ -9980,7 +9981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -10003,7 +10004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -10027,29 +10028,29 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>7</v>
-      </c>
-      <c r="B240">
+      <c r="A240" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B240" s="6">
         <v>327</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="6">
         <v>239</v>
       </c>
-      <c r="F240">
+      <c r="F240" s="6">
         <v>20</v>
       </c>
-      <c r="G240" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G240" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="51" hidden="